--- a/catalog.xlsx
+++ b/catalog.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFC1AA6-BDA1-4D76-9477-1D930BC32278}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0D316C-B6E8-44A9-8074-01B973AB2187}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Веб-приложения" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="950">
   <si>
     <t xml:space="preserve">Название Веб-приложения </t>
   </si>
@@ -3819,32 +3819,16 @@
     </r>
   </si>
   <si>
-    <t>ARASf</t>
-  </si>
-  <si>
-    <t>ssassd</t>
-  </si>
-  <si>
-    <t>ff</t>
-  </si>
-  <si>
     <t/>
-  </si>
-  <si>
-    <t>пидARAS</t>
-  </si>
-  <si>
-    <t>вв</t>
-  </si>
-  <si>
-    <t>ARASxx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4214,7 +4198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4345,13 +4329,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4493,6 +4471,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4519,6 +4510,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4817,33 +4814,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.6640625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.33203125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="15.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="23.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="39.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="19.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.33203125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="32.5546875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="37.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="29.44140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="50.6640625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="31.44140625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="28.109375" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="39.5546875" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="26.109375" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="28.5546875" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="23.33203125" collapsed="true"/>
+    <col min="1" max="1" width="22.109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="39.5546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.33203125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="32.5546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="37" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="29.44140625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="50.6640625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="31.44140625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="28.109375" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="39.5546875" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="26.109375" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="28.5546875" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="23.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="31.2" x14ac:dyDescent="0.3">
@@ -4912,72 +4909,72 @@
       </c>
     </row>
     <row r="2" spans="1:21" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="98" t="s">
-        <v>952</v>
-      </c>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98" t="s">
-        <v>952</v>
-      </c>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="99"/>
+      <c r="B2" s="101" t="s">
+        <v>949</v>
+      </c>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101" t="s">
+        <v>949</v>
+      </c>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="102"/>
     </row>
     <row r="3" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="72" t="s">
+      <c r="C3" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="71" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45" t="s">
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="45">
+      <c r="J3" s="44">
         <v>2019</v>
       </c>
-      <c r="K3" s="45" t="s">
+      <c r="K3" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49" t="s">
+      <c r="L3" s="47"/>
+      <c r="M3" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="48" t="s">
+      <c r="N3" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="45" t="s">
+      <c r="O3" s="44" t="s">
         <v>31</v>
       </c>
       <c r="P3" s="5"/>
@@ -4989,644 +4986,644 @@
       <c r="T3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="U3" s="45" t="s">
+      <c r="U3" s="44" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="220.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="63" t="s">
+      <c r="E4" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="63" t="s">
+      <c r="G4" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="65" t="s">
+      <c r="H4" s="63" t="s">
         <v>938</v>
       </c>
-      <c r="I4" s="63" t="s">
+      <c r="I4" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="66" t="s">
+      <c r="J4" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="66" t="s">
+      <c r="K4" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66" t="s">
+      <c r="L4" s="64"/>
+      <c r="M4" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="66" t="s">
+      <c r="N4" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="66" t="s">
+      <c r="O4" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="P4" s="67" t="s">
+      <c r="P4" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="64" t="s">
         <v>939</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="S4" s="66" t="s">
+      <c r="S4" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="T4" s="68"/>
-      <c r="U4" s="68" t="s">
+      <c r="T4" s="66"/>
+      <c r="U4" s="66" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="234.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="63" t="s">
+      <c r="E5" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="69" t="s">
+      <c r="G5" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="63" t="s">
+      <c r="H5" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="63" t="s">
+      <c r="I5" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="65" t="s">
+      <c r="J5" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="66" t="s">
+      <c r="K5" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66" t="s">
+      <c r="L5" s="64"/>
+      <c r="M5" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="N5" s="66" t="s">
+      <c r="N5" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="O5" s="66" t="s">
+      <c r="O5" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="P5" s="67" t="s">
+      <c r="P5" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="Q5" s="65" t="s">
+      <c r="Q5" s="63" t="s">
         <v>940</v>
       </c>
-      <c r="R5" s="66" t="s">
+      <c r="R5" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="S5" s="74" t="s">
+      <c r="S5" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="T5" s="68"/>
-      <c r="U5" s="68" t="s">
+      <c r="T5" s="66"/>
+      <c r="U5" s="66" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="138" x14ac:dyDescent="0.3">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="63" t="s">
+      <c r="E6" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="69" t="s">
+      <c r="G6" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63" t="s">
+      <c r="H6" s="61"/>
+      <c r="I6" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="65" t="s">
+      <c r="J6" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="66" t="s">
+      <c r="K6" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66" t="s">
+      <c r="L6" s="64"/>
+      <c r="M6" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="N6" s="66" t="s">
+      <c r="N6" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="O6" s="66" t="s">
+      <c r="O6" s="64" t="s">
         <v>941</v>
       </c>
-      <c r="P6" s="67" t="s">
+      <c r="P6" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="Q6" s="65" t="s">
+      <c r="Q6" s="63" t="s">
         <v>940</v>
       </c>
-      <c r="R6" s="66" t="s">
+      <c r="R6" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="S6" s="75" t="s">
+      <c r="S6" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="T6" s="68"/>
-      <c r="U6" s="68"/>
+      <c r="T6" s="66"/>
+      <c r="U6" s="66"/>
     </row>
     <row r="7" spans="1:21" ht="193.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="63" t="s">
+      <c r="E7" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="69" t="s">
+      <c r="G7" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63" t="s">
+      <c r="H7" s="61"/>
+      <c r="I7" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="65" t="s">
+      <c r="J7" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="66" t="s">
+      <c r="K7" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66" t="s">
+      <c r="L7" s="64"/>
+      <c r="M7" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="N7" s="66" t="s">
+      <c r="N7" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="66" t="s">
+      <c r="O7" s="64" t="s">
         <v>941</v>
       </c>
-      <c r="P7" s="67" t="s">
+      <c r="P7" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="65" t="s">
+      <c r="Q7" s="63" t="s">
         <v>940</v>
       </c>
-      <c r="R7" s="66" t="s">
+      <c r="R7" s="64" t="s">
         <v>60</v>
       </c>
-      <c r="S7" s="75" t="s">
+      <c r="S7" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="T7" s="68"/>
-      <c r="U7" s="68"/>
+      <c r="T7" s="66"/>
+      <c r="U7" s="66"/>
     </row>
     <row r="8" spans="1:21" ht="193.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="63" t="s">
+      <c r="E8" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="69" t="s">
+      <c r="G8" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63" t="s">
+      <c r="H8" s="61"/>
+      <c r="I8" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="65" t="s">
+      <c r="J8" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="66" t="s">
+      <c r="K8" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66" t="s">
+      <c r="L8" s="64"/>
+      <c r="M8" s="64" t="s">
         <v>69</v>
       </c>
-      <c r="N8" s="66" t="s">
+      <c r="N8" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="O8" s="66" t="s">
+      <c r="O8" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="P8" s="67" t="s">
+      <c r="P8" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="Q8" s="65" t="s">
+      <c r="Q8" s="63" t="s">
         <v>940</v>
       </c>
-      <c r="R8" s="66" t="s">
+      <c r="R8" s="64" t="s">
         <v>70</v>
       </c>
-      <c r="S8" s="75" t="s">
+      <c r="S8" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="T8" s="68"/>
-      <c r="U8" s="68"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="66"/>
     </row>
     <row r="9" spans="1:21" ht="193.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="63" t="s">
+      <c r="E9" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="G9" s="69" t="s">
+      <c r="G9" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63" t="s">
+      <c r="H9" s="61"/>
+      <c r="I9" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="J9" s="65" t="s">
+      <c r="J9" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="K9" s="66" t="s">
+      <c r="K9" s="64" t="s">
         <v>73</v>
       </c>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66" t="s">
+      <c r="L9" s="64"/>
+      <c r="M9" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="N9" s="66" t="s">
+      <c r="N9" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="O9" s="66" t="s">
+      <c r="O9" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="P9" s="67" t="s">
+      <c r="P9" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="Q9" s="65" t="s">
+      <c r="Q9" s="63" t="s">
         <v>942</v>
       </c>
-      <c r="R9" s="66" t="s">
+      <c r="R9" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="S9" s="75" t="s">
+      <c r="S9" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="T9" s="68"/>
-      <c r="U9" s="68"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="66"/>
     </row>
     <row r="10" spans="1:21" ht="138" x14ac:dyDescent="0.3">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="64" t="s">
+      <c r="C10" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="63" t="s">
+      <c r="E10" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="69" t="s">
+      <c r="G10" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63" t="s">
+      <c r="H10" s="61"/>
+      <c r="I10" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="65" t="s">
+      <c r="J10" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="K10" s="66" t="s">
+      <c r="K10" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66" t="s">
+      <c r="L10" s="64"/>
+      <c r="M10" s="64" t="s">
         <v>80</v>
       </c>
-      <c r="N10" s="66" t="s">
+      <c r="N10" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="O10" s="66" t="s">
+      <c r="O10" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="P10" s="67" t="s">
+      <c r="P10" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="Q10" s="65" t="s">
+      <c r="Q10" s="63" t="s">
         <v>940</v>
       </c>
-      <c r="R10" s="66" t="s">
+      <c r="R10" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="S10" s="75" t="s">
+      <c r="S10" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="T10" s="68"/>
-      <c r="U10" s="68"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="66"/>
     </row>
     <row r="11" spans="1:21" ht="193.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="63" t="s">
+      <c r="E11" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="69" t="s">
+      <c r="G11" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63" t="s">
+      <c r="H11" s="61"/>
+      <c r="I11" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="65" t="s">
+      <c r="J11" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="K11" s="66" t="s">
+      <c r="K11" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66" t="s">
+      <c r="L11" s="64"/>
+      <c r="M11" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="N11" s="66" t="s">
+      <c r="N11" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="O11" s="66" t="s">
+      <c r="O11" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="P11" s="67" t="s">
+      <c r="P11" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="Q11" s="65" t="s">
+      <c r="Q11" s="63" t="s">
         <v>940</v>
       </c>
-      <c r="R11" s="66" t="s">
+      <c r="R11" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="S11" s="75" t="s">
+      <c r="S11" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="T11" s="68"/>
-      <c r="U11" s="68"/>
+      <c r="T11" s="66"/>
+      <c r="U11" s="66"/>
     </row>
     <row r="12" spans="1:21" ht="193.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C12" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="63" t="s">
+      <c r="E12" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="69" t="s">
+      <c r="G12" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63" t="s">
+      <c r="H12" s="61"/>
+      <c r="I12" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="65" t="s">
+      <c r="J12" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="K12" s="66" t="s">
+      <c r="K12" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66" t="s">
+      <c r="L12" s="64"/>
+      <c r="M12" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="N12" s="66" t="s">
+      <c r="N12" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="O12" s="66" t="s">
+      <c r="O12" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="P12" s="67" t="s">
+      <c r="P12" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="Q12" s="65" t="s">
+      <c r="Q12" s="63" t="s">
         <v>940</v>
       </c>
-      <c r="R12" s="66" t="s">
+      <c r="R12" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="S12" s="75" t="s">
+      <c r="S12" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
     </row>
     <row r="13" spans="1:21" ht="151.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="63" t="s">
+      <c r="E13" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="69" t="s">
+      <c r="G13" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63" t="s">
+      <c r="H13" s="61"/>
+      <c r="I13" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="65" t="s">
+      <c r="J13" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="K13" s="66" t="s">
+      <c r="K13" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66" t="s">
+      <c r="L13" s="64"/>
+      <c r="M13" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="N13" s="66" t="s">
+      <c r="N13" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="O13" s="66" t="s">
+      <c r="O13" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="P13" s="67" t="s">
+      <c r="P13" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="Q13" s="65" t="s">
+      <c r="Q13" s="63" t="s">
         <v>940</v>
       </c>
-      <c r="R13" s="66" t="s">
+      <c r="R13" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="S13" s="75" t="s">
+      <c r="S13" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="T13" s="68"/>
-      <c r="U13" s="68"/>
+      <c r="T13" s="66"/>
+      <c r="U13" s="66"/>
     </row>
     <row r="14" spans="1:21" ht="138" x14ac:dyDescent="0.3">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="63" t="s">
+      <c r="E14" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="G14" s="69" t="s">
+      <c r="G14" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63" t="s">
+      <c r="H14" s="61"/>
+      <c r="I14" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="65" t="s">
+      <c r="J14" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="K14" s="66" t="s">
+      <c r="K14" s="64" t="s">
         <v>102</v>
       </c>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66" t="s">
+      <c r="L14" s="64"/>
+      <c r="M14" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="N14" s="66" t="s">
+      <c r="N14" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="O14" s="66" t="s">
+      <c r="O14" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="P14" s="67" t="s">
+      <c r="P14" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="Q14" s="65" t="s">
+      <c r="Q14" s="63" t="s">
         <v>940</v>
       </c>
-      <c r="R14" s="66" t="s">
+      <c r="R14" s="64" t="s">
         <v>104</v>
       </c>
-      <c r="S14" s="75" t="s">
+      <c r="S14" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="T14" s="68"/>
-      <c r="U14" s="68"/>
+      <c r="T14" s="66"/>
+      <c r="U14" s="66"/>
     </row>
     <row r="15" spans="1:21" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
@@ -5647,32 +5644,32 @@
       <c r="F15" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="G15" s="76"/>
-      <c r="H15" s="77"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="75"/>
       <c r="I15" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="J15" s="50">
+      <c r="J15" s="48">
         <v>2020</v>
       </c>
-      <c r="K15" s="50" t="s">
+      <c r="K15" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50" t="s">
+      <c r="L15" s="48"/>
+      <c r="M15" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="N15" s="50" t="s">
+      <c r="N15" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="O15" s="50" t="s">
+      <c r="O15" s="48" t="s">
         <v>943</v>
       </c>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50" t="s">
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48" t="s">
         <v>113</v>
       </c>
       <c r="U15" s="2" t="s">
@@ -5698,32 +5695,32 @@
       <c r="F16" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G16" s="76"/>
-      <c r="H16" s="77"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="75"/>
       <c r="I16" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="J16" s="50">
+      <c r="J16" s="48">
         <v>2020</v>
       </c>
-      <c r="K16" s="50" t="s">
+      <c r="K16" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50" t="s">
+      <c r="L16" s="48"/>
+      <c r="M16" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="N16" s="50" t="s">
+      <c r="N16" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="O16" s="50" t="s">
+      <c r="O16" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="50" t="s">
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48" t="s">
         <v>113</v>
       </c>
       <c r="U16" s="2" t="s">
@@ -5749,32 +5746,32 @@
       <c r="F17" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G17" s="76"/>
-      <c r="H17" s="77"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="75"/>
       <c r="I17" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="J17" s="50">
+      <c r="J17" s="48">
         <v>2020</v>
       </c>
-      <c r="K17" s="50" t="s">
+      <c r="K17" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50" t="s">
+      <c r="L17" s="48"/>
+      <c r="M17" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="N17" s="50" t="s">
+      <c r="N17" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="O17" s="50" t="s">
+      <c r="O17" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50" t="s">
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48" t="s">
         <v>113</v>
       </c>
       <c r="U17" s="2" t="s">
@@ -5800,32 +5797,32 @@
       <c r="F18" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G18" s="76"/>
-      <c r="H18" s="77"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="75"/>
       <c r="I18" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="J18" s="50">
+      <c r="J18" s="48">
         <v>2020</v>
       </c>
-      <c r="K18" s="50" t="s">
+      <c r="K18" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50" t="s">
+      <c r="L18" s="48"/>
+      <c r="M18" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="N18" s="50" t="s">
+      <c r="N18" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="O18" s="50" t="s">
+      <c r="O18" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="50" t="s">
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48" t="s">
         <v>113</v>
       </c>
       <c r="U18" s="2" t="s">
@@ -5851,35 +5848,35 @@
       <c r="F19" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="G19" s="76"/>
-      <c r="H19" s="77"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="75"/>
       <c r="I19" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="J19" s="50">
+      <c r="J19" s="48">
         <v>2019</v>
       </c>
-      <c r="K19" s="50" t="s">
+      <c r="K19" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50" t="s">
+      <c r="L19" s="48"/>
+      <c r="M19" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="N19" s="50" t="s">
+      <c r="N19" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="O19" s="50" t="s">
+      <c r="O19" s="48" t="s">
         <v>944</v>
       </c>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="50" t="s">
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="U19" s="76"/>
+      <c r="U19" s="74"/>
     </row>
     <row r="20" spans="1:21" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
@@ -5900,32 +5897,32 @@
       <c r="F20" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="G20" s="76"/>
-      <c r="H20" s="77"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="75"/>
       <c r="I20" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="J20" s="50">
+      <c r="J20" s="48">
         <v>2019</v>
       </c>
-      <c r="K20" s="50" t="s">
+      <c r="K20" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="L20" s="50"/>
-      <c r="M20" s="50" t="s">
+      <c r="L20" s="48"/>
+      <c r="M20" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="N20" s="50" t="s">
+      <c r="N20" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="O20" s="50" t="s">
+      <c r="O20" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="P20" s="50"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="50" t="s">
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48" t="s">
         <v>113</v>
       </c>
       <c r="U20" s="2" t="s">
@@ -5933,7 +5930,7 @@
       </c>
     </row>
     <row r="21" spans="1:21" ht="179.4" x14ac:dyDescent="0.3">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="49" t="s">
         <v>143</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -5954,31 +5951,31 @@
       <c r="G21" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H21" s="78"/>
+      <c r="H21" s="76"/>
       <c r="I21" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="J21" s="45">
+      <c r="J21" s="44">
         <v>2020</v>
       </c>
-      <c r="K21" s="45" t="s">
+      <c r="K21" s="44" t="s">
         <v>150</v>
       </c>
-      <c r="L21" s="45"/>
-      <c r="M21" s="45" t="s">
+      <c r="L21" s="44"/>
+      <c r="M21" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="N21" s="45" t="s">
+      <c r="N21" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="O21" s="45" t="s">
+      <c r="O21" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45" t="s">
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44" t="s">
         <v>153</v>
       </c>
       <c r="U21" s="5" t="s">
@@ -5986,10 +5983,10 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="48" t="s">
+      <c r="A22" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="46" t="s">
         <v>156</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -6004,32 +6001,32 @@
       <c r="F22" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
       <c r="I22" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="J22" s="45">
+      <c r="J22" s="44">
         <v>2020</v>
       </c>
-      <c r="K22" s="45" t="s">
+      <c r="K22" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="L22" s="45"/>
-      <c r="M22" s="45" t="s">
+      <c r="L22" s="44"/>
+      <c r="M22" s="44" t="s">
         <v>161</v>
       </c>
-      <c r="N22" s="45" t="s">
+      <c r="N22" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="O22" s="45" t="s">
+      <c r="O22" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45" t="s">
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44" t="s">
         <v>163</v>
       </c>
       <c r="U22" s="1" t="s">
@@ -6037,10 +6034,10 @@
       </c>
     </row>
     <row r="23" spans="1:21" ht="138" x14ac:dyDescent="0.3">
-      <c r="A23" s="48" t="s">
+      <c r="A23" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="46" t="s">
         <v>166</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -6055,32 +6052,32 @@
       <c r="F23" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
       <c r="I23" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="J23" s="45">
+      <c r="J23" s="44">
         <v>2020</v>
       </c>
-      <c r="K23" s="45" t="s">
+      <c r="K23" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49" t="s">
+      <c r="L23" s="47"/>
+      <c r="M23" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="N23" s="45" t="s">
+      <c r="N23" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="O23" s="45" t="s">
+      <c r="O23" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45" t="s">
+      <c r="P23" s="44"/>
+      <c r="Q23" s="44"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44" t="s">
         <v>172</v>
       </c>
       <c r="U23" s="1" t="s">
@@ -6088,10 +6085,10 @@
       </c>
     </row>
     <row r="24" spans="1:21" ht="110.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="46" t="s">
         <v>175</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -6106,32 +6103,32 @@
       <c r="F24" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
       <c r="I24" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="J24" s="45">
+      <c r="J24" s="44">
         <v>2020</v>
       </c>
-      <c r="K24" s="45" t="s">
+      <c r="K24" s="44" t="s">
         <v>178</v>
       </c>
-      <c r="L24" s="45"/>
-      <c r="M24" s="45" t="s">
+      <c r="L24" s="44"/>
+      <c r="M24" s="44" t="s">
         <v>179</v>
       </c>
-      <c r="N24" s="45" t="s">
+      <c r="N24" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="O24" s="45" t="s">
+      <c r="O24" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="45" t="s">
+      <c r="P24" s="44"/>
+      <c r="Q24" s="44"/>
+      <c r="R24" s="44"/>
+      <c r="S24" s="44"/>
+      <c r="T24" s="44" t="s">
         <v>180</v>
       </c>
       <c r="U24" s="1" t="s">
@@ -6139,10 +6136,10 @@
       </c>
     </row>
     <row r="25" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="B25" s="48" t="s">
+      <c r="B25" s="46" t="s">
         <v>183</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -6157,41 +6154,41 @@
       <c r="F25" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
       <c r="I25" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="J25" s="45">
+      <c r="J25" s="44">
         <v>2021</v>
       </c>
-      <c r="K25" s="45" t="s">
+      <c r="K25" s="44" t="s">
         <v>136</v>
       </c>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45" t="s">
+      <c r="L25" s="44"/>
+      <c r="M25" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="N25" s="45" t="s">
+      <c r="N25" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="O25" s="45" t="s">
+      <c r="O25" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="45" t="s">
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="44"/>
+      <c r="T25" s="44" t="s">
         <v>189</v>
       </c>
       <c r="U25" s="1"/>
     </row>
     <row r="26" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="48" t="s">
+      <c r="A26" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="46" t="s">
         <v>191</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -6206,41 +6203,41 @@
       <c r="F26" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
       <c r="I26" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="J26" s="45">
+      <c r="J26" s="44">
         <v>2020</v>
       </c>
-      <c r="K26" s="45" t="s">
+      <c r="K26" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="L26" s="79"/>
-      <c r="M26" s="45" t="s">
+      <c r="L26" s="77"/>
+      <c r="M26" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="N26" s="45" t="s">
+      <c r="N26" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="O26" s="45" t="s">
+      <c r="O26" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="P26" s="79"/>
-      <c r="Q26" s="79"/>
-      <c r="R26" s="79"/>
-      <c r="S26" s="79"/>
-      <c r="T26" s="79"/>
-      <c r="U26" s="45" t="s">
+      <c r="P26" s="77"/>
+      <c r="Q26" s="77"/>
+      <c r="R26" s="77"/>
+      <c r="S26" s="77"/>
+      <c r="T26" s="77"/>
+      <c r="U26" s="44" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="B27" s="48" t="s">
+      <c r="B27" s="46" t="s">
         <v>198</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -6255,43 +6252,43 @@
       <c r="F27" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
       <c r="I27" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="J27" s="45">
+      <c r="J27" s="44">
         <v>2020</v>
       </c>
-      <c r="K27" s="45" t="s">
+      <c r="K27" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="L27" s="79"/>
-      <c r="M27" s="45" t="s">
+      <c r="L27" s="77"/>
+      <c r="M27" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="N27" s="45" t="s">
+      <c r="N27" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="O27" s="45" t="s">
+      <c r="O27" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="P27" s="79"/>
-      <c r="Q27" s="79"/>
-      <c r="R27" s="79"/>
-      <c r="S27" s="79"/>
-      <c r="T27" s="45" t="s">
+      <c r="P27" s="77"/>
+      <c r="Q27" s="77"/>
+      <c r="R27" s="77"/>
+      <c r="S27" s="77"/>
+      <c r="T27" s="44" t="s">
         <v>201</v>
       </c>
-      <c r="U27" s="45" t="s">
+      <c r="U27" s="44" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="48" t="s">
+      <c r="A28" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="46" t="s">
         <v>204</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -6306,43 +6303,43 @@
       <c r="F28" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
       <c r="I28" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="J28" s="45">
+      <c r="J28" s="44">
         <v>2020</v>
       </c>
-      <c r="K28" s="45" t="s">
+      <c r="K28" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="L28" s="80"/>
-      <c r="M28" s="52" t="s">
+      <c r="L28" s="78"/>
+      <c r="M28" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="N28" s="45" t="s">
+      <c r="N28" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="O28" s="45" t="s">
+      <c r="O28" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="P28" s="79"/>
-      <c r="Q28" s="79"/>
-      <c r="R28" s="79"/>
-      <c r="S28" s="79"/>
-      <c r="T28" s="45" t="s">
+      <c r="P28" s="77"/>
+      <c r="Q28" s="77"/>
+      <c r="R28" s="77"/>
+      <c r="S28" s="77"/>
+      <c r="T28" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="U28" s="45" t="s">
+      <c r="U28" s="44" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="46" t="s">
         <v>210</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -6357,43 +6354,43 @@
       <c r="F29" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G29" s="79"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="45" t="s">
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="J29" s="45">
+      <c r="J29" s="44">
         <v>2020</v>
       </c>
-      <c r="K29" s="45" t="s">
+      <c r="K29" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="L29" s="79"/>
-      <c r="M29" s="45" t="s">
+      <c r="L29" s="77"/>
+      <c r="M29" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="N29" s="45" t="s">
+      <c r="N29" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="O29" s="45" t="s">
+      <c r="O29" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="P29" s="79"/>
-      <c r="Q29" s="79"/>
-      <c r="R29" s="79"/>
-      <c r="S29" s="79"/>
-      <c r="T29" s="45" t="s">
+      <c r="P29" s="77"/>
+      <c r="Q29" s="77"/>
+      <c r="R29" s="77"/>
+      <c r="S29" s="77"/>
+      <c r="T29" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="U29" s="45" t="s">
+      <c r="U29" s="44" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="151.80000000000001" x14ac:dyDescent="0.3">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="46" t="s">
         <v>215</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -6408,43 +6405,43 @@
       <c r="F30" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="45" t="s">
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="44" t="s">
         <v>206</v>
       </c>
-      <c r="J30" s="45">
+      <c r="J30" s="44">
         <v>2020</v>
       </c>
-      <c r="K30" s="45" t="s">
+      <c r="K30" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="L30" s="79"/>
-      <c r="M30" s="45" t="s">
+      <c r="L30" s="77"/>
+      <c r="M30" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="N30" s="53" t="s">
+      <c r="N30" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="O30" s="45" t="s">
+      <c r="O30" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="P30" s="79"/>
-      <c r="Q30" s="79"/>
-      <c r="R30" s="79"/>
-      <c r="S30" s="79"/>
-      <c r="T30" s="45" t="s">
+      <c r="P30" s="77"/>
+      <c r="Q30" s="77"/>
+      <c r="R30" s="77"/>
+      <c r="S30" s="77"/>
+      <c r="T30" s="44" t="s">
         <v>218</v>
       </c>
-      <c r="U30" s="45" t="s">
+      <c r="U30" s="44" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="124.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="46" t="s">
         <v>221</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -6459,43 +6456,43 @@
       <c r="F31" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G31" s="79"/>
-      <c r="H31" s="79"/>
-      <c r="I31" s="45" t="s">
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="J31" s="45">
+      <c r="J31" s="44">
         <v>2020</v>
       </c>
-      <c r="K31" s="45" t="s">
+      <c r="K31" s="44" t="s">
         <v>194</v>
       </c>
-      <c r="L31" s="79"/>
-      <c r="M31" s="45" t="s">
+      <c r="L31" s="77"/>
+      <c r="M31" s="44" t="s">
         <v>195</v>
       </c>
-      <c r="N31" s="45" t="s">
+      <c r="N31" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="O31" s="45" t="s">
+      <c r="O31" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="P31" s="79"/>
-      <c r="Q31" s="79"/>
-      <c r="R31" s="79"/>
-      <c r="S31" s="79"/>
-      <c r="T31" s="45" t="s">
+      <c r="P31" s="77"/>
+      <c r="Q31" s="77"/>
+      <c r="R31" s="77"/>
+      <c r="S31" s="77"/>
+      <c r="T31" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="U31" s="45" t="s">
+      <c r="U31" s="44" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="46" t="s">
         <v>226</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -6507,95 +6504,95 @@
       <c r="E32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="45" t="s">
+      <c r="F32" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
-      <c r="I32" s="45" t="s">
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="44" t="s">
         <v>229</v>
       </c>
-      <c r="J32" s="45">
+      <c r="J32" s="44">
         <v>2020</v>
       </c>
-      <c r="K32" s="45" t="s">
+      <c r="K32" s="44" t="s">
         <v>230</v>
       </c>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49" t="s">
+      <c r="L32" s="47"/>
+      <c r="M32" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="N32" s="45" t="s">
+      <c r="N32" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="O32" s="45" t="s">
+      <c r="O32" s="44" t="s">
         <v>232</v>
       </c>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="45"/>
-      <c r="S32" s="45"/>
-      <c r="T32" s="45" t="s">
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="44" t="s">
         <v>233</v>
       </c>
-      <c r="U32" s="45" t="s">
+      <c r="U32" s="44" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="B33" s="52" t="s">
+      <c r="B33" s="50" t="s">
         <v>236</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="D33" s="54" t="s">
+      <c r="D33" s="52" t="s">
         <v>25</v>
       </c>
       <c r="E33" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F33" s="52" t="s">
+      <c r="F33" s="50" t="s">
         <v>238</v>
       </c>
-      <c r="G33" s="55" t="s">
+      <c r="G33" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="H33" s="81"/>
-      <c r="I33" s="52" t="s">
+      <c r="H33" s="79"/>
+      <c r="I33" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="J33" s="52">
+      <c r="J33" s="50">
         <v>2018</v>
       </c>
-      <c r="K33" s="52" t="s">
+      <c r="K33" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="L33" s="56"/>
-      <c r="M33" s="49" t="s">
+      <c r="L33" s="54"/>
+      <c r="M33" s="47" t="s">
         <v>242</v>
       </c>
-      <c r="N33" s="45" t="s">
+      <c r="N33" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="O33" s="45" t="s">
+      <c r="O33" s="44" t="s">
         <v>243</v>
       </c>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="45"/>
-      <c r="S33" s="45"/>
-      <c r="T33" s="45"/>
-      <c r="U33" s="45"/>
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="44"/>
+      <c r="S33" s="44"/>
+      <c r="T33" s="44"/>
+      <c r="U33" s="44"/>
     </row>
     <row r="34" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A34" s="48" t="s">
+      <c r="A34" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="44" t="s">
         <v>245</v>
       </c>
       <c r="C34" s="7" t="s">
@@ -6607,65 +6604,65 @@
       <c r="E34" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="45" t="s">
+      <c r="F34" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="G34" s="57"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="45" t="s">
+      <c r="G34" s="55"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="44" t="s">
         <v>247</v>
       </c>
-      <c r="J34" s="45">
+      <c r="J34" s="44">
         <v>2020</v>
       </c>
-      <c r="K34" s="45" t="s">
+      <c r="K34" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="L34" s="45"/>
-      <c r="M34" s="49" t="s">
+      <c r="L34" s="44"/>
+      <c r="M34" s="47" t="s">
         <v>249</v>
       </c>
-      <c r="N34" s="45" t="s">
+      <c r="N34" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="O34" s="45" t="s">
+      <c r="O34" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="45"/>
-      <c r="R34" s="45"/>
-      <c r="S34" s="45"/>
-      <c r="T34" s="45" t="s">
+      <c r="P34" s="44"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="44"/>
+      <c r="S34" s="44"/>
+      <c r="T34" s="44" t="s">
         <v>250</v>
       </c>
-      <c r="U34" s="45" t="s">
+      <c r="U34" s="44" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A35" s="94" t="s">
+      <c r="A35" s="97" t="s">
         <v>252</v>
       </c>
-      <c r="B35" s="95"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="95"/>
-      <c r="L35" s="95"/>
-      <c r="M35" s="95"/>
-      <c r="N35" s="95"/>
-      <c r="O35" s="95"/>
-      <c r="P35" s="95"/>
-      <c r="Q35" s="95"/>
-      <c r="R35" s="95"/>
-      <c r="S35" s="95"/>
-      <c r="T35" s="95"/>
-      <c r="U35" s="96"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="98"/>
+      <c r="I35" s="98"/>
+      <c r="J35" s="98"/>
+      <c r="K35" s="98"/>
+      <c r="L35" s="98"/>
+      <c r="M35" s="98"/>
+      <c r="N35" s="98"/>
+      <c r="O35" s="98"/>
+      <c r="P35" s="98"/>
+      <c r="Q35" s="98"/>
+      <c r="R35" s="98"/>
+      <c r="S35" s="98"/>
+      <c r="T35" s="98"/>
+      <c r="U35" s="99"/>
     </row>
     <row r="36" spans="1:21" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
@@ -6674,53 +6671,53 @@
       <c r="B36" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="D36" s="45" t="s">
+      <c r="D36" s="44" t="s">
         <v>256</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F36" s="45" t="s">
+      <c r="F36" s="44" t="s">
         <v>257</v>
       </c>
-      <c r="G36" s="45" t="s">
+      <c r="G36" s="44" t="s">
         <v>258</v>
       </c>
-      <c r="H36" s="45" t="s">
+      <c r="H36" s="44" t="s">
         <v>259</v>
       </c>
-      <c r="I36" s="45" t="s">
+      <c r="I36" s="44" t="s">
         <v>260</v>
       </c>
-      <c r="J36" s="45">
+      <c r="J36" s="44">
         <v>2020</v>
       </c>
-      <c r="K36" s="48" t="s">
+      <c r="K36" s="46" t="s">
         <v>261</v>
       </c>
-      <c r="L36" s="48"/>
-      <c r="M36" s="48" t="s">
+      <c r="L36" s="46"/>
+      <c r="M36" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="N36" s="48" t="s">
+      <c r="N36" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="O36" s="45" t="s">
+      <c r="O36" s="44" t="s">
         <v>945</v>
       </c>
-      <c r="P36" s="45" t="s">
+      <c r="P36" s="44" t="s">
         <v>263</v>
       </c>
-      <c r="Q36" s="45" t="s">
+      <c r="Q36" s="44" t="s">
         <v>264</v>
       </c>
-      <c r="R36" s="79"/>
-      <c r="S36" s="79"/>
-      <c r="T36" s="79"/>
-      <c r="U36" s="79"/>
+      <c r="R36" s="77"/>
+      <c r="S36" s="77"/>
+      <c r="T36" s="77"/>
+      <c r="U36" s="77"/>
     </row>
     <row r="37" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
@@ -6729,80 +6726,80 @@
       <c r="B37" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C37" s="45" t="s">
+      <c r="C37" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="D37" s="45" t="s">
+      <c r="D37" s="44" t="s">
         <v>256</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F37" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="G37" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="H37" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="I37" s="45" t="s">
+      <c r="F37" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" s="44" t="s">
         <v>267</v>
       </c>
-      <c r="J37" s="45">
+      <c r="J37" s="44">
         <v>2020</v>
       </c>
-      <c r="K37" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="L37" s="49"/>
-      <c r="M37" s="49" t="s">
+      <c r="K37" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47" t="s">
         <v>268</v>
       </c>
-      <c r="N37" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="O37" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="P37" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q37" s="45" t="s">
+      <c r="N37" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="O37" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="P37" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q37" s="44" t="s">
         <v>269</v>
       </c>
-      <c r="R37" s="45" t="s">
+      <c r="R37" s="44" t="s">
         <v>270</v>
       </c>
-      <c r="S37" s="79"/>
-      <c r="T37" s="79"/>
-      <c r="U37" s="79"/>
+      <c r="S37" s="77"/>
+      <c r="T37" s="77"/>
+      <c r="U37" s="77"/>
     </row>
     <row r="38" spans="1:21" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="94" t="s">
+      <c r="A38" s="97" t="s">
         <v>271</v>
       </c>
-      <c r="B38" s="95"/>
-      <c r="C38" s="95"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="95"/>
-      <c r="F38" s="95"/>
-      <c r="G38" s="95"/>
-      <c r="H38" s="95"/>
-      <c r="I38" s="95"/>
-      <c r="J38" s="95"/>
-      <c r="K38" s="95"/>
-      <c r="L38" s="95"/>
-      <c r="M38" s="95"/>
-      <c r="N38" s="95"/>
-      <c r="O38" s="95"/>
-      <c r="P38" s="95"/>
-      <c r="Q38" s="95"/>
-      <c r="R38" s="95"/>
-      <c r="S38" s="95"/>
-      <c r="T38" s="95"/>
-      <c r="U38" s="96"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="98"/>
+      <c r="E38" s="98"/>
+      <c r="F38" s="98"/>
+      <c r="G38" s="98"/>
+      <c r="H38" s="98"/>
+      <c r="I38" s="98"/>
+      <c r="J38" s="98"/>
+      <c r="K38" s="98"/>
+      <c r="L38" s="98"/>
+      <c r="M38" s="98"/>
+      <c r="N38" s="98"/>
+      <c r="O38" s="98"/>
+      <c r="P38" s="98"/>
+      <c r="Q38" s="98"/>
+      <c r="R38" s="98"/>
+      <c r="S38" s="98"/>
+      <c r="T38" s="98"/>
+      <c r="U38" s="99"/>
     </row>
     <row r="39" spans="1:21" ht="144" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
@@ -6811,36 +6808,36 @@
       <c r="B39" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C39" s="45" t="s">
+      <c r="C39" s="44" t="s">
         <v>237</v>
       </c>
-      <c r="D39" s="45" t="s">
+      <c r="D39" s="44" t="s">
         <v>237</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F39" s="45" t="s">
+      <c r="F39" s="44" t="s">
         <v>274</v>
       </c>
-      <c r="G39" s="45" t="s">
+      <c r="G39" s="44" t="s">
         <v>275</v>
       </c>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45" t="s">
+      <c r="H39" s="44"/>
+      <c r="I39" s="44" t="s">
         <v>276</v>
       </c>
-      <c r="J39" s="45">
+      <c r="J39" s="44">
         <v>2020</v>
       </c>
-      <c r="K39" s="45" t="s">
+      <c r="K39" s="44" t="s">
         <v>277</v>
       </c>
-      <c r="L39" s="49"/>
-      <c r="M39" s="49" t="s">
+      <c r="L39" s="47"/>
+      <c r="M39" s="47" t="s">
         <v>278</v>
       </c>
-      <c r="N39" s="48" t="s">
+      <c r="N39" s="46" t="s">
         <v>30</v>
       </c>
       <c r="O39" s="1" t="s">
@@ -6850,18 +6847,18 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
-      <c r="T39" s="45" t="s">
+      <c r="T39" s="44" t="s">
         <v>280</v>
       </c>
-      <c r="U39" s="45" t="s">
+      <c r="U39" s="44" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="48" t="s">
+      <c r="A40" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="B40" s="48" t="s">
+      <c r="B40" s="46" t="s">
         <v>283</v>
       </c>
       <c r="C40" s="7" t="s">
@@ -6873,44 +6870,44 @@
       <c r="E40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F40" s="45" t="s">
+      <c r="F40" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="45" t="s">
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="44" t="s">
         <v>284</v>
       </c>
-      <c r="J40" s="45">
+      <c r="J40" s="44">
         <v>2020</v>
       </c>
-      <c r="K40" s="58" t="s">
+      <c r="K40" s="56" t="s">
         <v>285</v>
       </c>
-      <c r="L40" s="49"/>
-      <c r="M40" s="49" t="s">
+      <c r="L40" s="47"/>
+      <c r="M40" s="47" t="s">
         <v>286</v>
       </c>
-      <c r="N40" s="45" t="s">
+      <c r="N40" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="O40" s="45" t="s">
+      <c r="O40" s="44" t="s">
         <v>287</v>
       </c>
-      <c r="P40" s="45"/>
-      <c r="Q40" s="45"/>
-      <c r="R40" s="45"/>
-      <c r="S40" s="45"/>
-      <c r="T40" s="45"/>
-      <c r="U40" s="45" t="s">
+      <c r="P40" s="44"/>
+      <c r="Q40" s="44"/>
+      <c r="R40" s="44"/>
+      <c r="S40" s="44"/>
+      <c r="T40" s="44"/>
+      <c r="U40" s="44" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="48" t="s">
+      <c r="A41" s="46" t="s">
         <v>289</v>
       </c>
-      <c r="B41" s="48" t="s">
+      <c r="B41" s="46" t="s">
         <v>290</v>
       </c>
       <c r="C41" s="7" t="s">
@@ -6922,48 +6919,48 @@
       <c r="E41" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F41" s="45" t="s">
+      <c r="F41" s="44" t="s">
         <v>291</v>
       </c>
-      <c r="G41" s="45" t="s">
+      <c r="G41" s="44" t="s">
         <v>292</v>
       </c>
-      <c r="H41" s="79"/>
-      <c r="I41" s="45" t="s">
+      <c r="H41" s="77"/>
+      <c r="I41" s="44" t="s">
         <v>293</v>
       </c>
-      <c r="J41" s="45">
+      <c r="J41" s="44">
         <v>2020</v>
       </c>
-      <c r="K41" s="45" t="s">
+      <c r="K41" s="44" t="s">
         <v>294</v>
       </c>
-      <c r="L41" s="49"/>
-      <c r="M41" s="49" t="s">
+      <c r="L41" s="47"/>
+      <c r="M41" s="47" t="s">
         <v>295</v>
       </c>
-      <c r="N41" s="45" t="s">
+      <c r="N41" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="O41" s="45" t="s">
+      <c r="O41" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="P41" s="45"/>
-      <c r="Q41" s="45"/>
-      <c r="R41" s="45"/>
-      <c r="S41" s="45"/>
-      <c r="T41" s="45" t="s">
+      <c r="P41" s="44"/>
+      <c r="Q41" s="44"/>
+      <c r="R41" s="44"/>
+      <c r="S41" s="44"/>
+      <c r="T41" s="44" t="s">
         <v>296</v>
       </c>
-      <c r="U41" s="45" t="s">
+      <c r="U41" s="44" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="48" t="s">
+      <c r="A42" s="46" t="s">
         <v>298</v>
       </c>
-      <c r="B42" s="48" t="s">
+      <c r="B42" s="46" t="s">
         <v>299</v>
       </c>
       <c r="C42" s="7" t="s">
@@ -6975,40 +6972,40 @@
       <c r="E42" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F42" s="45" t="s">
+      <c r="F42" s="44" t="s">
         <v>300</v>
       </c>
-      <c r="G42" s="45" t="s">
+      <c r="G42" s="44" t="s">
         <v>301</v>
       </c>
-      <c r="H42" s="79"/>
-      <c r="I42" s="45" t="s">
+      <c r="H42" s="77"/>
+      <c r="I42" s="44" t="s">
         <v>302</v>
       </c>
-      <c r="J42" s="45">
+      <c r="J42" s="44">
         <v>2020</v>
       </c>
-      <c r="K42" s="45" t="s">
+      <c r="K42" s="44" t="s">
         <v>303</v>
       </c>
-      <c r="L42" s="45"/>
-      <c r="M42" s="49" t="s">
+      <c r="L42" s="44"/>
+      <c r="M42" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="N42" s="45" t="s">
+      <c r="N42" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="O42" s="45" t="s">
+      <c r="O42" s="44" t="s">
         <v>946</v>
       </c>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="45"/>
-      <c r="R42" s="45"/>
-      <c r="S42" s="45"/>
-      <c r="T42" s="45" t="s">
+      <c r="P42" s="44"/>
+      <c r="Q42" s="44"/>
+      <c r="R42" s="44"/>
+      <c r="S42" s="44"/>
+      <c r="T42" s="44" t="s">
         <v>305</v>
       </c>
-      <c r="U42" s="45" t="s">
+      <c r="U42" s="44" t="s">
         <v>306</v>
       </c>
     </row>
@@ -7016,107 +7013,107 @@
       <c r="A43" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="49" t="s">
         <v>308</v>
       </c>
-      <c r="C43" s="45" t="s">
+      <c r="C43" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="45" t="s">
+      <c r="D43" s="44" t="s">
         <v>309</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="45" t="s">
+      <c r="F43" s="44" t="s">
         <v>310</v>
       </c>
-      <c r="G43" s="45"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="45" t="s">
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44" t="s">
         <v>311</v>
       </c>
-      <c r="J43" s="45">
+      <c r="J43" s="44">
         <v>2019</v>
       </c>
-      <c r="K43" s="45" t="s">
+      <c r="K43" s="44" t="s">
         <v>312</v>
       </c>
-      <c r="L43" s="45"/>
-      <c r="M43" s="45" t="s">
+      <c r="L43" s="44"/>
+      <c r="M43" s="44" t="s">
         <v>313</v>
       </c>
-      <c r="N43" s="45"/>
-      <c r="O43" s="45" t="s">
+      <c r="N43" s="44"/>
+      <c r="O43" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="P43" s="45"/>
-      <c r="Q43" s="45"/>
-      <c r="R43" s="45"/>
-      <c r="S43" s="45"/>
-      <c r="T43" s="45" t="s">
+      <c r="P43" s="44"/>
+      <c r="Q43" s="44"/>
+      <c r="R43" s="44"/>
+      <c r="S43" s="44"/>
+      <c r="T43" s="44" t="s">
         <v>314</v>
       </c>
-      <c r="U43" s="45" t="s">
+      <c r="U43" s="44" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="44" spans="1:21" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A44" s="94" t="s">
+      <c r="A44" s="97" t="s">
         <v>316</v>
       </c>
-      <c r="B44" s="95"/>
-      <c r="C44" s="95"/>
-      <c r="D44" s="95"/>
-      <c r="E44" s="95"/>
-      <c r="F44" s="95"/>
-      <c r="G44" s="95"/>
-      <c r="H44" s="95"/>
-      <c r="I44" s="95"/>
-      <c r="J44" s="95"/>
-      <c r="K44" s="95"/>
-      <c r="L44" s="95"/>
-      <c r="M44" s="95"/>
-      <c r="N44" s="95"/>
-      <c r="O44" s="95"/>
-      <c r="P44" s="95"/>
-      <c r="Q44" s="95"/>
-      <c r="R44" s="95"/>
-      <c r="S44" s="95"/>
-      <c r="T44" s="95"/>
-      <c r="U44" s="96"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="98"/>
+      <c r="G44" s="98"/>
+      <c r="H44" s="98"/>
+      <c r="I44" s="98"/>
+      <c r="J44" s="98"/>
+      <c r="K44" s="98"/>
+      <c r="L44" s="98"/>
+      <c r="M44" s="98"/>
+      <c r="N44" s="98"/>
+      <c r="O44" s="98"/>
+      <c r="P44" s="98"/>
+      <c r="Q44" s="98"/>
+      <c r="R44" s="98"/>
+      <c r="S44" s="98"/>
+      <c r="T44" s="98"/>
+      <c r="U44" s="99"/>
     </row>
     <row r="45" spans="1:21" ht="72" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B45" s="49" t="s">
+      <c r="B45" s="47" t="s">
         <v>318</v>
       </c>
-      <c r="C45" s="45" t="s">
+      <c r="C45" s="44" t="s">
         <v>319</v>
       </c>
-      <c r="D45" s="45" t="s">
+      <c r="D45" s="44" t="s">
         <v>320</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45" t="s">
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44" t="s">
         <v>321</v>
       </c>
-      <c r="J45" s="45">
+      <c r="J45" s="44">
         <v>2020</v>
       </c>
-      <c r="K45" s="45" t="s">
+      <c r="K45" s="44" t="s">
         <v>322</v>
       </c>
-      <c r="L45" s="49"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="48" t="s">
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="46" t="s">
         <v>30</v>
       </c>
       <c r="O45" s="1" t="s">
@@ -7126,35 +7123,35 @@
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
-      <c r="T45" s="79"/>
-      <c r="U45" s="45" t="s">
+      <c r="T45" s="77"/>
+      <c r="U45" s="44" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="46" spans="1:21" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A46" s="94" t="s">
+      <c r="A46" s="97" t="s">
         <v>325</v>
       </c>
-      <c r="B46" s="95"/>
-      <c r="C46" s="95"/>
-      <c r="D46" s="95"/>
-      <c r="E46" s="95"/>
-      <c r="F46" s="95"/>
-      <c r="G46" s="95"/>
-      <c r="H46" s="95"/>
-      <c r="I46" s="95"/>
-      <c r="J46" s="95"/>
-      <c r="K46" s="95"/>
-      <c r="L46" s="95"/>
-      <c r="M46" s="95"/>
-      <c r="N46" s="95"/>
-      <c r="O46" s="95"/>
-      <c r="P46" s="95"/>
-      <c r="Q46" s="95"/>
-      <c r="R46" s="95"/>
-      <c r="S46" s="95"/>
-      <c r="T46" s="95"/>
-      <c r="U46" s="96"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="98"/>
+      <c r="D46" s="98"/>
+      <c r="E46" s="98"/>
+      <c r="F46" s="98"/>
+      <c r="G46" s="98"/>
+      <c r="H46" s="98"/>
+      <c r="I46" s="98"/>
+      <c r="J46" s="98"/>
+      <c r="K46" s="98"/>
+      <c r="L46" s="98"/>
+      <c r="M46" s="98"/>
+      <c r="N46" s="98"/>
+      <c r="O46" s="98"/>
+      <c r="P46" s="98"/>
+      <c r="Q46" s="98"/>
+      <c r="R46" s="98"/>
+      <c r="S46" s="98"/>
+      <c r="T46" s="98"/>
+      <c r="U46" s="99"/>
     </row>
     <row r="47" spans="1:21" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
@@ -7163,96 +7160,96 @@
       <c r="B47" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C47" s="45" t="s">
+      <c r="C47" s="44" t="s">
         <v>328</v>
       </c>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="44" t="s">
         <v>329</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F47" s="45" t="s">
+      <c r="F47" s="44" t="s">
         <v>330</v>
       </c>
-      <c r="G47" s="45" t="s">
+      <c r="G47" s="44" t="s">
         <v>331</v>
       </c>
-      <c r="H47" s="45"/>
-      <c r="I47" s="45" t="s">
+      <c r="H47" s="44"/>
+      <c r="I47" s="44" t="s">
         <v>332</v>
       </c>
-      <c r="J47" s="45">
+      <c r="J47" s="44">
         <v>2019</v>
       </c>
-      <c r="K47" s="45" t="s">
+      <c r="K47" s="44" t="s">
         <v>333</v>
       </c>
-      <c r="L47" s="49"/>
-      <c r="M47" s="49" t="s">
+      <c r="L47" s="47"/>
+      <c r="M47" s="47" t="s">
         <v>334</v>
       </c>
-      <c r="N47" s="53"/>
-      <c r="O47" s="59" t="s">
+      <c r="N47" s="51"/>
+      <c r="O47" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="P47" s="59"/>
-      <c r="Q47" s="59"/>
-      <c r="R47" s="59"/>
-      <c r="S47" s="59"/>
-      <c r="T47" s="45" t="s">
+      <c r="P47" s="57"/>
+      <c r="Q47" s="57"/>
+      <c r="R47" s="57"/>
+      <c r="S47" s="57"/>
+      <c r="T47" s="44" t="s">
         <v>335</v>
       </c>
-      <c r="U47" s="45" t="s">
+      <c r="U47" s="44" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="48" spans="1:21" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="70" t="s">
+      <c r="A48" s="68" t="s">
         <v>337</v>
       </c>
-      <c r="B48" s="70" t="s">
+      <c r="B48" s="68" t="s">
         <v>338</v>
       </c>
-      <c r="C48" s="66" t="s">
+      <c r="C48" s="64" t="s">
         <v>339</v>
       </c>
-      <c r="D48" s="66" t="s">
+      <c r="D48" s="64" t="s">
         <v>329</v>
       </c>
-      <c r="E48" s="70" t="s">
-        <v>25</v>
-      </c>
-      <c r="F48" s="66" t="s">
+      <c r="E48" s="68" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" s="64" t="s">
         <v>340</v>
       </c>
-      <c r="G48" s="66"/>
-      <c r="H48" s="66"/>
-      <c r="I48" s="66" t="s">
+      <c r="G48" s="64"/>
+      <c r="H48" s="64"/>
+      <c r="I48" s="64" t="s">
         <v>341</v>
       </c>
-      <c r="J48" s="66">
+      <c r="J48" s="64">
         <v>2019</v>
       </c>
-      <c r="K48" s="66" t="s">
+      <c r="K48" s="64" t="s">
         <v>342</v>
       </c>
-      <c r="L48" s="66"/>
-      <c r="M48" s="66" t="s">
+      <c r="L48" s="64"/>
+      <c r="M48" s="64" t="s">
         <v>343</v>
       </c>
-      <c r="N48" s="66"/>
-      <c r="O48" s="70" t="s">
+      <c r="N48" s="64"/>
+      <c r="O48" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="P48" s="70"/>
-      <c r="Q48" s="70"/>
-      <c r="R48" s="70"/>
-      <c r="S48" s="70"/>
-      <c r="T48" s="66" t="s">
+      <c r="P48" s="68"/>
+      <c r="Q48" s="68"/>
+      <c r="R48" s="68"/>
+      <c r="S48" s="68"/>
+      <c r="T48" s="64" t="s">
         <v>344</v>
       </c>
-      <c r="U48" s="66" t="s">
+      <c r="U48" s="64" t="s">
         <v>345</v>
       </c>
     </row>
@@ -7260,50 +7257,50 @@
       <c r="A49" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B49" s="51" t="s">
+      <c r="B49" s="49" t="s">
         <v>347</v>
       </c>
-      <c r="C49" s="45" t="s">
+      <c r="C49" s="44" t="s">
         <v>348</v>
       </c>
-      <c r="D49" s="45" t="s">
+      <c r="D49" s="44" t="s">
         <v>309</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F49" s="45" t="s">
+      <c r="F49" s="44" t="s">
         <v>349</v>
       </c>
-      <c r="G49" s="45"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="45" t="s">
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44" t="s">
         <v>350</v>
       </c>
-      <c r="J49" s="45">
+      <c r="J49" s="44">
         <v>2020</v>
       </c>
-      <c r="K49" s="45" t="s">
+      <c r="K49" s="44" t="s">
         <v>351</v>
       </c>
-      <c r="L49" s="45" t="s">
+      <c r="L49" s="44" t="s">
         <v>352</v>
       </c>
-      <c r="M49" s="45" t="s">
+      <c r="M49" s="44" t="s">
         <v>353</v>
       </c>
-      <c r="N49" s="45"/>
-      <c r="O49" s="60" t="s">
+      <c r="N49" s="44"/>
+      <c r="O49" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="P49" s="60"/>
-      <c r="Q49" s="60"/>
-      <c r="R49" s="60"/>
-      <c r="S49" s="60"/>
-      <c r="T49" s="45" t="s">
+      <c r="P49" s="58"/>
+      <c r="Q49" s="58"/>
+      <c r="R49" s="58"/>
+      <c r="S49" s="58"/>
+      <c r="T49" s="44" t="s">
         <v>354</v>
       </c>
-      <c r="U49" s="45" t="s">
+      <c r="U49" s="44" t="s">
         <v>355</v>
       </c>
     </row>
@@ -7311,50 +7308,50 @@
       <c r="A50" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B50" s="48" t="s">
+      <c r="B50" s="46" t="s">
         <v>357</v>
       </c>
-      <c r="C50" s="45" t="s">
+      <c r="C50" s="44" t="s">
         <v>328</v>
       </c>
-      <c r="D50" s="45" t="s">
+      <c r="D50" s="44" t="s">
         <v>309</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F50" s="45" t="s">
+      <c r="F50" s="44" t="s">
         <v>358</v>
       </c>
-      <c r="G50" s="45" t="s">
+      <c r="G50" s="44" t="s">
         <v>359</v>
       </c>
-      <c r="H50" s="45"/>
-      <c r="I50" s="45" t="s">
+      <c r="H50" s="44"/>
+      <c r="I50" s="44" t="s">
         <v>360</v>
       </c>
-      <c r="J50" s="45">
+      <c r="J50" s="44">
         <v>2019</v>
       </c>
-      <c r="K50" s="45" t="s">
+      <c r="K50" s="44" t="s">
         <v>361</v>
       </c>
-      <c r="L50" s="45"/>
-      <c r="M50" s="45" t="s">
+      <c r="L50" s="44"/>
+      <c r="M50" s="44" t="s">
         <v>362</v>
       </c>
-      <c r="N50" s="45"/>
-      <c r="O50" s="45" t="s">
+      <c r="N50" s="44"/>
+      <c r="O50" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="P50" s="45"/>
-      <c r="Q50" s="45"/>
-      <c r="R50" s="45"/>
-      <c r="S50" s="45"/>
-      <c r="T50" s="45" t="s">
+      <c r="P50" s="44"/>
+      <c r="Q50" s="44"/>
+      <c r="R50" s="44"/>
+      <c r="S50" s="44"/>
+      <c r="T50" s="44" t="s">
         <v>363</v>
       </c>
-      <c r="U50" s="45" t="s">
+      <c r="U50" s="44" t="s">
         <v>364</v>
       </c>
     </row>
@@ -7365,49 +7362,49 @@
       <c r="B51" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="C51" s="45" t="s">
+      <c r="C51" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="D51" s="45" t="s">
+      <c r="D51" s="44" t="s">
         <v>329</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F51" s="45" t="s">
+      <c r="F51" s="44" t="s">
         <v>367</v>
       </c>
-      <c r="G51" s="45" t="s">
+      <c r="G51" s="44" t="s">
         <v>368</v>
       </c>
-      <c r="H51" s="45"/>
-      <c r="I51" s="45" t="s">
+      <c r="H51" s="44"/>
+      <c r="I51" s="44" t="s">
         <v>369</v>
       </c>
-      <c r="J51" s="45">
+      <c r="J51" s="44">
         <v>2019</v>
       </c>
-      <c r="K51" s="45" t="s">
+      <c r="K51" s="44" t="s">
         <v>370</v>
       </c>
-      <c r="L51" s="45"/>
-      <c r="M51" s="45" t="s">
+      <c r="L51" s="44"/>
+      <c r="M51" s="44" t="s">
         <v>371</v>
       </c>
-      <c r="N51" s="48" t="s">
+      <c r="N51" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="O51" s="45" t="s">
+      <c r="O51" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="P51" s="45"/>
-      <c r="Q51" s="45"/>
-      <c r="R51" s="45"/>
-      <c r="S51" s="45"/>
-      <c r="T51" s="45" t="s">
+      <c r="P51" s="44"/>
+      <c r="Q51" s="44"/>
+      <c r="R51" s="44"/>
+      <c r="S51" s="44"/>
+      <c r="T51" s="44" t="s">
         <v>372</v>
       </c>
-      <c r="U51" s="45" t="s">
+      <c r="U51" s="44" t="s">
         <v>373</v>
       </c>
     </row>
@@ -7415,52 +7412,52 @@
       <c r="A52" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="B52" s="51" t="s">
+      <c r="B52" s="49" t="s">
         <v>375</v>
       </c>
-      <c r="C52" s="45" t="s">
+      <c r="C52" s="44" t="s">
         <v>348</v>
       </c>
-      <c r="D52" s="45" t="s">
+      <c r="D52" s="44" t="s">
         <v>309</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F52" s="45" t="s">
+      <c r="F52" s="44" t="s">
         <v>376</v>
       </c>
-      <c r="G52" s="45" t="s">
+      <c r="G52" s="44" t="s">
         <v>377</v>
       </c>
-      <c r="H52" s="45"/>
-      <c r="I52" s="45" t="s">
+      <c r="H52" s="44"/>
+      <c r="I52" s="44" t="s">
         <v>378</v>
       </c>
-      <c r="J52" s="45">
+      <c r="J52" s="44">
         <v>2020</v>
       </c>
-      <c r="K52" s="45" t="s">
+      <c r="K52" s="44" t="s">
         <v>379</v>
       </c>
-      <c r="L52" s="45" t="s">
+      <c r="L52" s="44" t="s">
         <v>352</v>
       </c>
-      <c r="M52" s="45" t="s">
+      <c r="M52" s="44" t="s">
         <v>380</v>
       </c>
-      <c r="N52" s="45"/>
-      <c r="O52" s="45" t="s">
+      <c r="N52" s="44"/>
+      <c r="O52" s="44" t="s">
         <v>381</v>
       </c>
-      <c r="P52" s="45"/>
-      <c r="Q52" s="45"/>
-      <c r="R52" s="45"/>
-      <c r="S52" s="45"/>
-      <c r="T52" s="45" t="s">
+      <c r="P52" s="44"/>
+      <c r="Q52" s="44"/>
+      <c r="R52" s="44"/>
+      <c r="S52" s="44"/>
+      <c r="T52" s="44" t="s">
         <v>382</v>
       </c>
-      <c r="U52" s="45" t="s">
+      <c r="U52" s="44" t="s">
         <v>383</v>
       </c>
     </row>
@@ -7471,45 +7468,45 @@
       <c r="B53" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="C53" s="50" t="s">
+      <c r="C53" s="48" t="s">
         <v>328</v>
       </c>
-      <c r="D53" s="50" t="s">
+      <c r="D53" s="48" t="s">
         <v>386</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F53" s="50" t="s">
+      <c r="F53" s="48" t="s">
         <v>387</v>
       </c>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
-      <c r="I53" s="50" t="s">
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48" t="s">
         <v>388</v>
       </c>
-      <c r="J53" s="50">
+      <c r="J53" s="48">
         <v>2020</v>
       </c>
-      <c r="K53" s="50" t="s">
+      <c r="K53" s="48" t="s">
         <v>389</v>
       </c>
-      <c r="L53" s="50"/>
-      <c r="M53" s="50" t="s">
+      <c r="L53" s="48"/>
+      <c r="M53" s="48" t="s">
         <v>390</v>
       </c>
-      <c r="N53" s="50"/>
-      <c r="O53" s="50" t="s">
+      <c r="N53" s="48"/>
+      <c r="O53" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="P53" s="50"/>
-      <c r="Q53" s="50"/>
-      <c r="R53" s="50"/>
-      <c r="S53" s="50"/>
-      <c r="T53" s="50" t="s">
+      <c r="P53" s="48"/>
+      <c r="Q53" s="48"/>
+      <c r="R53" s="48"/>
+      <c r="S53" s="48"/>
+      <c r="T53" s="48" t="s">
         <v>391</v>
       </c>
-      <c r="U53" s="50" t="s">
+      <c r="U53" s="48" t="s">
         <v>392</v>
       </c>
     </row>
@@ -7517,46 +7514,46 @@
       <c r="A54" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B54" s="48" t="s">
+      <c r="B54" s="46" t="s">
         <v>393</v>
       </c>
-      <c r="C54" s="45" t="s">
+      <c r="C54" s="44" t="s">
         <v>348</v>
       </c>
-      <c r="D54" s="45" t="s">
+      <c r="D54" s="44" t="s">
         <v>309</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F54" s="45" t="s">
+      <c r="F54" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="G54" s="45"/>
-      <c r="H54" s="45"/>
-      <c r="I54" s="45" t="s">
+      <c r="G54" s="44"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="44" t="s">
         <v>394</v>
       </c>
-      <c r="J54" s="45">
+      <c r="J54" s="44">
         <v>2020</v>
       </c>
-      <c r="K54" s="45" t="s">
+      <c r="K54" s="44" t="s">
         <v>395</v>
       </c>
-      <c r="L54" s="45"/>
-      <c r="M54" s="45" t="s">
+      <c r="L54" s="44"/>
+      <c r="M54" s="44" t="s">
         <v>396</v>
       </c>
-      <c r="N54" s="45"/>
-      <c r="O54" s="45" t="s">
+      <c r="N54" s="44"/>
+      <c r="O54" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="P54" s="45"/>
-      <c r="Q54" s="45"/>
-      <c r="R54" s="45"/>
-      <c r="S54" s="45"/>
-      <c r="T54" s="45"/>
-      <c r="U54" s="45" t="s">
+      <c r="P54" s="44"/>
+      <c r="Q54" s="44"/>
+      <c r="R54" s="44"/>
+      <c r="S54" s="44"/>
+      <c r="T54" s="44"/>
+      <c r="U54" s="44" t="s">
         <v>397</v>
       </c>
     </row>
@@ -7567,47 +7564,47 @@
       <c r="B55" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="C55" s="45" t="s">
+      <c r="C55" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="D55" s="45" t="s">
+      <c r="D55" s="44" t="s">
         <v>329</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F55" s="45" t="s">
+      <c r="F55" s="44" t="s">
         <v>400</v>
       </c>
-      <c r="G55" s="45" t="s">
+      <c r="G55" s="44" t="s">
         <v>401</v>
       </c>
-      <c r="H55" s="45"/>
-      <c r="I55" s="45" t="s">
+      <c r="H55" s="44"/>
+      <c r="I55" s="44" t="s">
         <v>402</v>
       </c>
-      <c r="J55" s="45">
+      <c r="J55" s="44">
         <v>2020</v>
       </c>
-      <c r="K55" s="45" t="s">
+      <c r="K55" s="44" t="s">
         <v>403</v>
       </c>
-      <c r="L55" s="45"/>
-      <c r="M55" s="45" t="s">
+      <c r="L55" s="44"/>
+      <c r="M55" s="44" t="s">
         <v>404</v>
       </c>
-      <c r="N55" s="45"/>
-      <c r="O55" s="45" t="s">
+      <c r="N55" s="44"/>
+      <c r="O55" s="44" t="s">
         <v>381</v>
       </c>
-      <c r="P55" s="45"/>
-      <c r="Q55" s="45"/>
-      <c r="R55" s="45"/>
-      <c r="S55" s="45"/>
-      <c r="T55" s="45" t="s">
+      <c r="P55" s="44"/>
+      <c r="Q55" s="44"/>
+      <c r="R55" s="44"/>
+      <c r="S55" s="44"/>
+      <c r="T55" s="44" t="s">
         <v>405</v>
       </c>
-      <c r="U55" s="45" t="s">
+      <c r="U55" s="44" t="s">
         <v>406</v>
       </c>
     </row>
@@ -7618,47 +7615,47 @@
       <c r="B56" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="C56" s="45" t="s">
+      <c r="C56" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="D56" s="45" t="s">
+      <c r="D56" s="44" t="s">
         <v>329</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F56" s="45" t="s">
+      <c r="F56" s="44" t="s">
         <v>409</v>
       </c>
-      <c r="G56" s="45"/>
-      <c r="H56" s="45"/>
-      <c r="I56" s="45" t="s">
+      <c r="G56" s="44"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="44" t="s">
         <v>410</v>
       </c>
-      <c r="J56" s="45">
+      <c r="J56" s="44">
         <v>2019</v>
       </c>
-      <c r="K56" s="45" t="s">
+      <c r="K56" s="44" t="s">
         <v>411</v>
       </c>
-      <c r="L56" s="45"/>
-      <c r="M56" s="45" t="s">
+      <c r="L56" s="44"/>
+      <c r="M56" s="44" t="s">
         <v>412</v>
       </c>
-      <c r="N56" s="51" t="s">
+      <c r="N56" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="O56" s="45" t="s">
+      <c r="O56" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="P56" s="45"/>
-      <c r="Q56" s="45"/>
-      <c r="R56" s="45"/>
-      <c r="S56" s="45"/>
-      <c r="T56" s="45" t="s">
+      <c r="P56" s="44"/>
+      <c r="Q56" s="44"/>
+      <c r="R56" s="44"/>
+      <c r="S56" s="44"/>
+      <c r="T56" s="44" t="s">
         <v>413</v>
       </c>
-      <c r="U56" s="45" t="s">
+      <c r="U56" s="44" t="s">
         <v>414</v>
       </c>
     </row>
@@ -7696,7 +7693,7 @@
       <c r="M57" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="N57" s="61" t="s">
+      <c r="N57" s="59" t="s">
         <v>30</v>
       </c>
       <c r="O57" s="10" t="s">
@@ -7714,86 +7711,86 @@
       </c>
     </row>
     <row r="58" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A58" s="58" t="s">
+      <c r="A58" s="56" t="s">
         <v>423</v>
       </c>
-      <c r="B58" s="62" t="s">
+      <c r="B58" s="60" t="s">
         <v>424</v>
       </c>
-      <c r="C58" s="45" t="s">
+      <c r="C58" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="D58" s="45" t="s">
+      <c r="D58" s="44" t="s">
         <v>425</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F58" s="45" t="s">
+      <c r="F58" s="44" t="s">
         <v>185</v>
       </c>
-      <c r="G58" s="45"/>
-      <c r="H58" s="45"/>
-      <c r="I58" s="45" t="s">
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="44" t="s">
         <v>426</v>
       </c>
-      <c r="J58" s="45">
+      <c r="J58" s="44">
         <v>2021</v>
       </c>
-      <c r="K58" s="45" t="s">
+      <c r="K58" s="44" t="s">
         <v>427</v>
       </c>
-      <c r="L58" s="45"/>
-      <c r="M58" s="45" t="s">
+      <c r="L58" s="44"/>
+      <c r="M58" s="44" t="s">
         <v>428</v>
       </c>
-      <c r="N58" s="51" t="s">
+      <c r="N58" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="O58" s="45" t="s">
+      <c r="O58" s="44" t="s">
         <v>188</v>
       </c>
-      <c r="P58" s="45"/>
-      <c r="Q58" s="45"/>
-      <c r="R58" s="45"/>
-      <c r="S58" s="45"/>
-      <c r="T58" s="45" t="s">
+      <c r="P58" s="44"/>
+      <c r="Q58" s="44"/>
+      <c r="R58" s="44"/>
+      <c r="S58" s="44"/>
+      <c r="T58" s="44" t="s">
         <v>429</v>
       </c>
-      <c r="U58" s="62" t="s">
+      <c r="U58" s="60" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="59" spans="1:21" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="94" t="s">
+      <c r="A59" s="97" t="s">
         <v>431</v>
       </c>
-      <c r="B59" s="95"/>
-      <c r="C59" s="95"/>
-      <c r="D59" s="95"/>
-      <c r="E59" s="95"/>
-      <c r="F59" s="95"/>
-      <c r="G59" s="95"/>
-      <c r="H59" s="95"/>
-      <c r="I59" s="95"/>
-      <c r="J59" s="95"/>
-      <c r="K59" s="95"/>
-      <c r="L59" s="95"/>
-      <c r="M59" s="95"/>
-      <c r="N59" s="95"/>
-      <c r="O59" s="95"/>
-      <c r="P59" s="95"/>
-      <c r="Q59" s="95"/>
-      <c r="R59" s="95"/>
-      <c r="S59" s="95"/>
-      <c r="T59" s="95"/>
-      <c r="U59" s="96"/>
+      <c r="B59" s="98"/>
+      <c r="C59" s="98"/>
+      <c r="D59" s="98"/>
+      <c r="E59" s="98"/>
+      <c r="F59" s="98"/>
+      <c r="G59" s="98"/>
+      <c r="H59" s="98"/>
+      <c r="I59" s="98"/>
+      <c r="J59" s="98"/>
+      <c r="K59" s="98"/>
+      <c r="L59" s="98"/>
+      <c r="M59" s="98"/>
+      <c r="N59" s="98"/>
+      <c r="O59" s="98"/>
+      <c r="P59" s="98"/>
+      <c r="Q59" s="98"/>
+      <c r="R59" s="98"/>
+      <c r="S59" s="98"/>
+      <c r="T59" s="98"/>
+      <c r="U59" s="99"/>
     </row>
     <row r="60" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="B60" s="47" t="s">
+      <c r="B60" s="45" t="s">
         <v>433</v>
       </c>
       <c r="C60" s="42" t="s">
@@ -7816,14 +7813,14 @@
       <c r="J60" s="42">
         <v>2019</v>
       </c>
-      <c r="K60" s="45" t="s">
+      <c r="K60" s="44" t="s">
         <v>436</v>
       </c>
       <c r="L60" s="42"/>
       <c r="M60" s="42" t="s">
         <v>437</v>
       </c>
-      <c r="N60" s="47" t="s">
+      <c r="N60" s="45" t="s">
         <v>30</v>
       </c>
       <c r="O60" s="13" t="s">
@@ -7840,7 +7837,7 @@
     </row>
     <row r="61" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="13"/>
-      <c r="B61" s="47" t="s">
+      <c r="B61" s="45" t="s">
         <v>439</v>
       </c>
       <c r="C61" s="42" t="s">
@@ -7863,14 +7860,14 @@
       <c r="J61" s="42">
         <v>2019</v>
       </c>
-      <c r="K61" s="45" t="s">
+      <c r="K61" s="44" t="s">
         <v>440</v>
       </c>
       <c r="L61" s="13" t="s">
         <v>432</v>
       </c>
       <c r="M61" s="42"/>
-      <c r="N61" s="47"/>
+      <c r="N61" s="45"/>
       <c r="O61" s="13"/>
       <c r="P61" s="13"/>
       <c r="Q61" s="13"/>
@@ -7881,7 +7878,7 @@
     </row>
     <row r="62" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="13"/>
-      <c r="B62" s="47" t="s">
+      <c r="B62" s="45" t="s">
         <v>441</v>
       </c>
       <c r="C62" s="42" t="s">
@@ -7904,14 +7901,14 @@
       <c r="J62" s="42">
         <v>2019</v>
       </c>
-      <c r="K62" s="45" t="s">
+      <c r="K62" s="44" t="s">
         <v>442</v>
       </c>
       <c r="L62" s="13" t="s">
         <v>432</v>
       </c>
       <c r="M62" s="42"/>
-      <c r="N62" s="47"/>
+      <c r="N62" s="45"/>
       <c r="O62" s="13"/>
       <c r="P62" s="13"/>
       <c r="Q62" s="13"/>
@@ -7922,7 +7919,7 @@
     </row>
     <row r="63" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="13"/>
-      <c r="B63" s="47" t="s">
+      <c r="B63" s="45" t="s">
         <v>443</v>
       </c>
       <c r="C63" s="42" t="s">
@@ -7945,14 +7942,14 @@
       <c r="J63" s="42">
         <v>2019</v>
       </c>
-      <c r="K63" s="45" t="s">
+      <c r="K63" s="44" t="s">
         <v>444</v>
       </c>
       <c r="L63" s="13" t="s">
         <v>432</v>
       </c>
       <c r="M63" s="42"/>
-      <c r="N63" s="47"/>
+      <c r="N63" s="45"/>
       <c r="O63" s="13"/>
       <c r="P63" s="13"/>
       <c r="Q63" s="13"/>
@@ -7963,7 +7960,7 @@
     </row>
     <row r="64" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A64" s="13"/>
-      <c r="B64" s="47" t="s">
+      <c r="B64" s="45" t="s">
         <v>445</v>
       </c>
       <c r="C64" s="42" t="s">
@@ -7986,14 +7983,14 @@
       <c r="J64" s="42">
         <v>2019</v>
       </c>
-      <c r="K64" s="45" t="s">
+      <c r="K64" s="44" t="s">
         <v>446</v>
       </c>
       <c r="L64" s="13" t="s">
         <v>432</v>
       </c>
       <c r="M64" s="42"/>
-      <c r="N64" s="47"/>
+      <c r="N64" s="45"/>
       <c r="O64" s="13"/>
       <c r="P64" s="13"/>
       <c r="Q64" s="13"/>
@@ -8021,29 +8018,29 @@
       <c r="F65" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="G65" s="82"/>
-      <c r="H65" s="82"/>
+      <c r="G65" s="80"/>
+      <c r="H65" s="80"/>
       <c r="I65" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="J65" s="45">
+      <c r="J65" s="44">
         <v>2018</v>
       </c>
-      <c r="K65" s="45" t="s">
+      <c r="K65" s="44" t="s">
         <v>453</v>
       </c>
       <c r="L65" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="M65" s="82"/>
-      <c r="N65" s="82"/>
-      <c r="O65" s="82"/>
-      <c r="P65" s="82"/>
-      <c r="Q65" s="82"/>
-      <c r="R65" s="82"/>
-      <c r="S65" s="82"/>
-      <c r="T65" s="82"/>
-      <c r="U65" s="82"/>
+      <c r="M65" s="80"/>
+      <c r="N65" s="80"/>
+      <c r="O65" s="80"/>
+      <c r="P65" s="80"/>
+      <c r="Q65" s="80"/>
+      <c r="R65" s="80"/>
+      <c r="S65" s="80"/>
+      <c r="T65" s="80"/>
+      <c r="U65" s="80"/>
     </row>
     <row r="66" spans="1:21" ht="289.8" x14ac:dyDescent="0.3">
       <c r="A66" s="13" t="s">
@@ -8062,15 +8059,15 @@
       <c r="F66" s="13" t="s">
         <v>456</v>
       </c>
-      <c r="G66" s="82"/>
-      <c r="H66" s="82"/>
+      <c r="G66" s="80"/>
+      <c r="H66" s="80"/>
       <c r="I66" s="13" t="s">
         <v>457</v>
       </c>
-      <c r="J66" s="45">
+      <c r="J66" s="44">
         <v>2022</v>
       </c>
-      <c r="K66" s="45" t="s">
+      <c r="K66" s="44" t="s">
         <v>458</v>
       </c>
       <c r="L66" s="13"/>
@@ -8112,26 +8109,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88726EB-EF95-4441-B78B-E4621CC68DE0}">
   <dimension ref="A1:N104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="D82" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="28.5546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="28.44140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="33.5546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="29.33203125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="33.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="36.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="29.44140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="24.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="24.5546875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="34.5546875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="41.33203125" collapsed="true"/>
+    <col min="1" max="1" width="34" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.5546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="33.5546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33" style="96" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="36" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="29.44140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24.6640625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.6640625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="24.5546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="34.5546875" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="41.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
@@ -8153,7 +8150,7 @@
       <c r="F1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="93" t="s">
         <v>466</v>
       </c>
       <c r="H1" s="31" t="s">
@@ -8179,22 +8176,22 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="98"/>
-      <c r="G2" s="98"/>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="71"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="69"/>
     </row>
     <row r="3" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" s="42" t="s">
@@ -8211,7 +8208,7 @@
         <v>473</v>
       </c>
       <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
+      <c r="G3" s="92"/>
       <c r="H3" s="42" t="s">
         <v>474</v>
       </c>
@@ -8228,7 +8225,7 @@
       <c r="M3" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="82"/>
+      <c r="N3" s="80"/>
     </row>
     <row r="4" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
@@ -8245,7 +8242,7 @@
         <v>478</v>
       </c>
       <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
+      <c r="G4" s="92"/>
       <c r="H4" s="42" t="s">
         <v>479</v>
       </c>
@@ -8260,13 +8257,13 @@
       <c r="M4" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="82"/>
+      <c r="N4" s="80"/>
     </row>
     <row r="5" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="42" t="s">
         <v>481</v>
       </c>
-      <c r="B5" s="82"/>
+      <c r="B5" s="80"/>
       <c r="C5" s="14" t="s">
         <v>37</v>
       </c>
@@ -8276,8 +8273,8 @@
       <c r="E5" s="42" t="s">
         <v>482</v>
       </c>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="94"/>
       <c r="H5" s="42" t="s">
         <v>483</v>
       </c>
@@ -8290,11 +8287,11 @@
       <c r="K5" s="43" t="s">
         <v>476</v>
       </c>
-      <c r="L5" s="82"/>
+      <c r="L5" s="80"/>
       <c r="M5" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="82"/>
+      <c r="N5" s="80"/>
     </row>
     <row r="6" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A6" s="42" t="s">
@@ -8311,7 +8308,7 @@
         <v>486</v>
       </c>
       <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
+      <c r="G6" s="92"/>
       <c r="H6" s="42" t="s">
         <v>487</v>
       </c>
@@ -8326,7 +8323,7 @@
       <c r="M6" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N6" s="82"/>
+      <c r="N6" s="80"/>
     </row>
     <row r="7" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="42" t="s">
@@ -8343,7 +8340,7 @@
         <v>490</v>
       </c>
       <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
+      <c r="G7" s="92"/>
       <c r="H7" s="42" t="s">
         <v>491</v>
       </c>
@@ -8358,7 +8355,7 @@
       <c r="M7" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="82"/>
+      <c r="N7" s="80"/>
     </row>
     <row r="8" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="42" t="s">
@@ -8375,7 +8372,7 @@
         <v>486</v>
       </c>
       <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
+      <c r="G8" s="92"/>
       <c r="H8" s="42" t="s">
         <v>494</v>
       </c>
@@ -8390,7 +8387,7 @@
       <c r="M8" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N8" s="82"/>
+      <c r="N8" s="80"/>
     </row>
     <row r="9" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A9" s="42" t="s">
@@ -8407,7 +8404,7 @@
         <v>473</v>
       </c>
       <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
+      <c r="G9" s="92"/>
       <c r="H9" s="42" t="s">
         <v>497</v>
       </c>
@@ -8422,7 +8419,7 @@
       <c r="M9" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="82"/>
+      <c r="N9" s="80"/>
     </row>
     <row r="10" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
@@ -8439,7 +8436,7 @@
         <v>486</v>
       </c>
       <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
+      <c r="G10" s="92"/>
       <c r="H10" s="42" t="s">
         <v>500</v>
       </c>
@@ -8454,7 +8451,7 @@
       <c r="M10" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="82"/>
+      <c r="N10" s="80"/>
     </row>
     <row r="11" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="42" t="s">
@@ -8471,7 +8468,7 @@
         <v>486</v>
       </c>
       <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
+      <c r="G11" s="92"/>
       <c r="H11" s="42" t="s">
         <v>503</v>
       </c>
@@ -8486,7 +8483,7 @@
       <c r="M11" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="82"/>
+      <c r="N11" s="80"/>
     </row>
     <row r="12" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="42" t="s">
@@ -8503,7 +8500,7 @@
         <v>490</v>
       </c>
       <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
+      <c r="G12" s="92"/>
       <c r="H12" s="42" t="s">
         <v>506</v>
       </c>
@@ -8518,7 +8515,7 @@
       <c r="M12" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N12" s="82"/>
+      <c r="N12" s="80"/>
     </row>
     <row r="13" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A13" s="42" t="s">
@@ -8535,7 +8532,7 @@
         <v>486</v>
       </c>
       <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
+      <c r="G13" s="92"/>
       <c r="H13" s="42" t="s">
         <v>509</v>
       </c>
@@ -8550,7 +8547,7 @@
       <c r="M13" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N13" s="82"/>
+      <c r="N13" s="80"/>
     </row>
     <row r="14" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="42" t="s">
@@ -8567,7 +8564,7 @@
         <v>486</v>
       </c>
       <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
+      <c r="G14" s="92"/>
       <c r="H14" s="42" t="s">
         <v>512</v>
       </c>
@@ -8582,7 +8579,7 @@
       <c r="M14" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="82"/>
+      <c r="N14" s="80"/>
     </row>
     <row r="15" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="42" t="s">
@@ -8599,7 +8596,7 @@
         <v>515</v>
       </c>
       <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
+      <c r="G15" s="92"/>
       <c r="H15" s="42" t="s">
         <v>516</v>
       </c>
@@ -8616,7 +8613,7 @@
       <c r="M15" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N15" s="82"/>
+      <c r="N15" s="80"/>
     </row>
     <row r="16" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A16" s="42" t="s">
@@ -8633,7 +8630,7 @@
         <v>519</v>
       </c>
       <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
+      <c r="G16" s="92"/>
       <c r="H16" s="42" t="s">
         <v>520</v>
       </c>
@@ -8648,7 +8645,7 @@
       <c r="M16" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N16" s="82"/>
+      <c r="N16" s="80"/>
     </row>
     <row r="17" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A17" s="42" t="s">
@@ -8665,7 +8662,7 @@
         <v>523</v>
       </c>
       <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
+      <c r="G17" s="92"/>
       <c r="H17" s="42" t="s">
         <v>524</v>
       </c>
@@ -8680,7 +8677,7 @@
       <c r="M17" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N17" s="82"/>
+      <c r="N17" s="80"/>
     </row>
     <row r="18" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A18" s="42" t="s">
@@ -8697,7 +8694,7 @@
         <v>478</v>
       </c>
       <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
+      <c r="G18" s="92"/>
       <c r="H18" s="42" t="s">
         <v>527</v>
       </c>
@@ -8712,7 +8709,7 @@
       <c r="M18" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N18" s="82"/>
+      <c r="N18" s="80"/>
     </row>
     <row r="19" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="42" t="s">
@@ -8729,7 +8726,7 @@
         <v>530</v>
       </c>
       <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
+      <c r="G19" s="92"/>
       <c r="H19" s="42" t="s">
         <v>531</v>
       </c>
@@ -8746,7 +8743,7 @@
       <c r="M19" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N19" s="82"/>
+      <c r="N19" s="80"/>
     </row>
     <row r="20" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A20" s="42" t="s">
@@ -8763,7 +8760,7 @@
         <v>534</v>
       </c>
       <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
+      <c r="G20" s="92"/>
       <c r="H20" s="42" t="s">
         <v>535</v>
       </c>
@@ -8778,7 +8775,7 @@
       <c r="M20" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N20" s="82"/>
+      <c r="N20" s="80"/>
     </row>
     <row r="21" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A21" s="42" t="s">
@@ -8795,7 +8792,7 @@
         <v>538</v>
       </c>
       <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
+      <c r="G21" s="92"/>
       <c r="H21" s="42" t="s">
         <v>539</v>
       </c>
@@ -8810,7 +8807,7 @@
       <c r="M21" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N21" s="82"/>
+      <c r="N21" s="80"/>
     </row>
     <row r="22" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" s="42" t="s">
@@ -8827,7 +8824,7 @@
         <v>542</v>
       </c>
       <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
+      <c r="G22" s="92"/>
       <c r="H22" s="42" t="s">
         <v>543</v>
       </c>
@@ -8844,7 +8841,7 @@
       <c r="M22" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N22" s="82"/>
+      <c r="N22" s="80"/>
     </row>
     <row r="23" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A23" s="42" t="s">
@@ -8861,7 +8858,7 @@
         <v>546</v>
       </c>
       <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
+      <c r="G23" s="92"/>
       <c r="H23" s="42" t="s">
         <v>547</v>
       </c>
@@ -8876,7 +8873,7 @@
       <c r="M23" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N23" s="82"/>
+      <c r="N23" s="80"/>
     </row>
     <row r="24" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A24" s="42" t="s">
@@ -8893,7 +8890,7 @@
         <v>550</v>
       </c>
       <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
+      <c r="G24" s="92"/>
       <c r="H24" s="42" t="s">
         <v>551</v>
       </c>
@@ -8908,7 +8905,7 @@
       <c r="M24" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N24" s="82"/>
+      <c r="N24" s="80"/>
     </row>
     <row r="25" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="42" t="s">
@@ -8925,7 +8922,7 @@
         <v>554</v>
       </c>
       <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
+      <c r="G25" s="92"/>
       <c r="H25" s="42" t="s">
         <v>555</v>
       </c>
@@ -8942,7 +8939,7 @@
       <c r="M25" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N25" s="82"/>
+      <c r="N25" s="80"/>
     </row>
     <row r="26" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A26" s="42" t="s">
@@ -8959,7 +8956,7 @@
         <v>558</v>
       </c>
       <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
+      <c r="G26" s="92"/>
       <c r="H26" s="42" t="s">
         <v>559</v>
       </c>
@@ -8976,7 +8973,7 @@
       <c r="M26" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N26" s="82"/>
+      <c r="N26" s="80"/>
     </row>
     <row r="27" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A27" s="42" t="s">
@@ -8993,7 +8990,7 @@
         <v>562</v>
       </c>
       <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
+      <c r="G27" s="92"/>
       <c r="H27" s="42" t="s">
         <v>563</v>
       </c>
@@ -9008,7 +9005,7 @@
       <c r="M27" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N27" s="82"/>
+      <c r="N27" s="80"/>
     </row>
     <row r="28" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A28" s="42" t="s">
@@ -9025,7 +9022,7 @@
         <v>566</v>
       </c>
       <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
+      <c r="G28" s="92"/>
       <c r="H28" s="42" t="s">
         <v>567</v>
       </c>
@@ -9040,7 +9037,7 @@
       <c r="M28" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N28" s="82"/>
+      <c r="N28" s="80"/>
     </row>
     <row r="29" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="42" t="s">
@@ -9057,7 +9054,7 @@
         <v>570</v>
       </c>
       <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
+      <c r="G29" s="92"/>
       <c r="H29" s="42" t="s">
         <v>571</v>
       </c>
@@ -9072,7 +9069,7 @@
       <c r="M29" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N29" s="82"/>
+      <c r="N29" s="80"/>
     </row>
     <row r="30" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A30" s="42" t="s">
@@ -9089,7 +9086,7 @@
         <v>574</v>
       </c>
       <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
+      <c r="G30" s="92"/>
       <c r="H30" s="42" t="s">
         <v>575</v>
       </c>
@@ -9106,7 +9103,7 @@
       <c r="M30" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N30" s="82"/>
+      <c r="N30" s="80"/>
     </row>
     <row r="31" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A31" s="42" t="s">
@@ -9123,7 +9120,7 @@
         <v>578</v>
       </c>
       <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
+      <c r="G31" s="92"/>
       <c r="H31" s="42" t="s">
         <v>579</v>
       </c>
@@ -9138,7 +9135,7 @@
       <c r="M31" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N31" s="82"/>
+      <c r="N31" s="80"/>
     </row>
     <row r="32" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A32" s="42" t="s">
@@ -9155,7 +9152,7 @@
         <v>582</v>
       </c>
       <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
+      <c r="G32" s="92"/>
       <c r="H32" s="42" t="s">
         <v>583</v>
       </c>
@@ -9170,7 +9167,7 @@
       <c r="M32" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N32" s="82"/>
+      <c r="N32" s="80"/>
     </row>
     <row r="33" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A33" s="42" t="s">
@@ -9187,7 +9184,7 @@
         <v>586</v>
       </c>
       <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
+      <c r="G33" s="92"/>
       <c r="H33" s="42" t="s">
         <v>587</v>
       </c>
@@ -9202,7 +9199,7 @@
       <c r="M33" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N33" s="82"/>
+      <c r="N33" s="80"/>
     </row>
     <row r="34" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A34" s="42" t="s">
@@ -9219,7 +9216,7 @@
         <v>590</v>
       </c>
       <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
+      <c r="G34" s="92"/>
       <c r="H34" s="42" t="s">
         <v>591</v>
       </c>
@@ -9236,7 +9233,7 @@
       <c r="M34" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N34" s="82"/>
+      <c r="N34" s="80"/>
     </row>
     <row r="35" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A35" s="42" t="s">
@@ -9253,7 +9250,7 @@
         <v>594</v>
       </c>
       <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
+      <c r="G35" s="92"/>
       <c r="H35" s="42" t="s">
         <v>595</v>
       </c>
@@ -9268,7 +9265,7 @@
       <c r="M35" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N35" s="82"/>
+      <c r="N35" s="80"/>
     </row>
     <row r="36" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A36" s="42" t="s">
@@ -9285,7 +9282,7 @@
         <v>598</v>
       </c>
       <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
+      <c r="G36" s="92"/>
       <c r="H36" s="42" t="s">
         <v>599</v>
       </c>
@@ -9300,7 +9297,7 @@
       <c r="M36" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N36" s="82"/>
+      <c r="N36" s="80"/>
     </row>
     <row r="37" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="42" t="s">
@@ -9317,7 +9314,7 @@
         <v>602</v>
       </c>
       <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
+      <c r="G37" s="92"/>
       <c r="H37" s="42" t="s">
         <v>603</v>
       </c>
@@ -9334,7 +9331,7 @@
       <c r="M37" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N37" s="82"/>
+      <c r="N37" s="80"/>
     </row>
     <row r="38" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A38" s="42" t="s">
@@ -9351,7 +9348,7 @@
         <v>606</v>
       </c>
       <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
+      <c r="G38" s="92"/>
       <c r="H38" s="42" t="s">
         <v>607</v>
       </c>
@@ -9366,7 +9363,7 @@
       <c r="M38" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N38" s="82"/>
+      <c r="N38" s="80"/>
     </row>
     <row r="39" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A39" s="42" t="s">
@@ -9383,7 +9380,7 @@
         <v>610</v>
       </c>
       <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
+      <c r="G39" s="92"/>
       <c r="H39" s="42" t="s">
         <v>611</v>
       </c>
@@ -9398,7 +9395,7 @@
       <c r="M39" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N39" s="82"/>
+      <c r="N39" s="80"/>
     </row>
     <row r="40" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A40" s="42" t="s">
@@ -9415,7 +9412,7 @@
         <v>614</v>
       </c>
       <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
+      <c r="G40" s="92"/>
       <c r="H40" s="42" t="s">
         <v>615</v>
       </c>
@@ -9432,7 +9429,7 @@
       <c r="M40" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N40" s="82"/>
+      <c r="N40" s="80"/>
     </row>
     <row r="41" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A41" s="42" t="s">
@@ -9449,7 +9446,7 @@
         <v>618</v>
       </c>
       <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
+      <c r="G41" s="92"/>
       <c r="H41" s="42" t="s">
         <v>619</v>
       </c>
@@ -9464,7 +9461,7 @@
       <c r="M41" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N41" s="82"/>
+      <c r="N41" s="80"/>
     </row>
     <row r="42" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A42" s="42" t="s">
@@ -9481,7 +9478,7 @@
         <v>622</v>
       </c>
       <c r="F42" s="42"/>
-      <c r="G42" s="42"/>
+      <c r="G42" s="92"/>
       <c r="H42" s="42" t="s">
         <v>623</v>
       </c>
@@ -9496,7 +9493,7 @@
       <c r="M42" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N42" s="82"/>
+      <c r="N42" s="80"/>
     </row>
     <row r="43" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A43" s="42" t="s">
@@ -9513,7 +9510,7 @@
         <v>570</v>
       </c>
       <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
+      <c r="G43" s="92"/>
       <c r="H43" s="42" t="s">
         <v>626</v>
       </c>
@@ -9528,7 +9525,7 @@
       <c r="M43" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N43" s="82"/>
+      <c r="N43" s="80"/>
     </row>
     <row r="44" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A44" s="42" t="s">
@@ -9545,7 +9542,7 @@
         <v>629</v>
       </c>
       <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
+      <c r="G44" s="92"/>
       <c r="H44" s="42" t="s">
         <v>630</v>
       </c>
@@ -9560,7 +9557,7 @@
       <c r="M44" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N44" s="82"/>
+      <c r="N44" s="80"/>
     </row>
     <row r="45" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="42" t="s">
@@ -9577,7 +9574,7 @@
         <v>633</v>
       </c>
       <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
+      <c r="G45" s="92"/>
       <c r="H45" s="42" t="s">
         <v>634</v>
       </c>
@@ -9592,7 +9589,7 @@
       <c r="M45" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N45" s="82"/>
+      <c r="N45" s="80"/>
     </row>
     <row r="46" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A46" s="42" t="s">
@@ -9609,7 +9606,7 @@
         <v>637</v>
       </c>
       <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
+      <c r="G46" s="92"/>
       <c r="H46" s="42" t="s">
         <v>638</v>
       </c>
@@ -9624,7 +9621,7 @@
       <c r="M46" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N46" s="82"/>
+      <c r="N46" s="80"/>
     </row>
     <row r="47" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="42" t="s">
@@ -9641,7 +9638,7 @@
         <v>486</v>
       </c>
       <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
+      <c r="G47" s="92"/>
       <c r="H47" s="42" t="s">
         <v>641</v>
       </c>
@@ -9656,7 +9653,7 @@
       <c r="M47" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N47" s="82"/>
+      <c r="N47" s="80"/>
     </row>
     <row r="48" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A48" s="42" t="s">
@@ -9673,7 +9670,7 @@
         <v>490</v>
       </c>
       <c r="F48" s="42"/>
-      <c r="G48" s="42"/>
+      <c r="G48" s="92"/>
       <c r="H48" s="42" t="s">
         <v>644</v>
       </c>
@@ -9688,7 +9685,7 @@
       <c r="M48" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N48" s="82"/>
+      <c r="N48" s="80"/>
     </row>
     <row r="49" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A49" s="42" t="s">
@@ -9705,7 +9702,7 @@
         <v>486</v>
       </c>
       <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
+      <c r="G49" s="92"/>
       <c r="H49" s="42" t="s">
         <v>647</v>
       </c>
@@ -9720,7 +9717,7 @@
       <c r="M49" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N49" s="82"/>
+      <c r="N49" s="80"/>
     </row>
     <row r="50" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A50" s="42" t="s">
@@ -9737,7 +9734,7 @@
         <v>473</v>
       </c>
       <c r="F50" s="42"/>
-      <c r="G50" s="42"/>
+      <c r="G50" s="92"/>
       <c r="H50" s="42" t="s">
         <v>650</v>
       </c>
@@ -9752,7 +9749,7 @@
       <c r="M50" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N50" s="82"/>
+      <c r="N50" s="80"/>
     </row>
     <row r="51" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="42" t="s">
@@ -9769,7 +9766,7 @@
         <v>486</v>
       </c>
       <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
+      <c r="G51" s="92"/>
       <c r="H51" s="42" t="s">
         <v>653</v>
       </c>
@@ -9784,7 +9781,7 @@
       <c r="M51" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N51" s="82"/>
+      <c r="N51" s="80"/>
     </row>
     <row r="52" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A52" s="42" t="s">
@@ -9801,7 +9798,7 @@
         <v>490</v>
       </c>
       <c r="F52" s="42"/>
-      <c r="G52" s="42"/>
+      <c r="G52" s="92"/>
       <c r="H52" s="42" t="s">
         <v>656</v>
       </c>
@@ -9816,7 +9813,7 @@
       <c r="M52" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N52" s="82"/>
+      <c r="N52" s="80"/>
     </row>
     <row r="53" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A53" s="42" t="s">
@@ -9833,7 +9830,7 @@
         <v>486</v>
       </c>
       <c r="F53" s="42"/>
-      <c r="G53" s="42"/>
+      <c r="G53" s="92"/>
       <c r="H53" s="42" t="s">
         <v>659</v>
       </c>
@@ -9848,7 +9845,7 @@
       <c r="M53" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N53" s="82"/>
+      <c r="N53" s="80"/>
     </row>
     <row r="54" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A54" s="42" t="s">
@@ -9865,7 +9862,7 @@
         <v>486</v>
       </c>
       <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
+      <c r="G54" s="92"/>
       <c r="H54" s="42" t="s">
         <v>662</v>
       </c>
@@ -9880,7 +9877,7 @@
       <c r="M54" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N54" s="82"/>
+      <c r="N54" s="80"/>
     </row>
     <row r="55" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="42" t="s">
@@ -9895,7 +9892,7 @@
       </c>
       <c r="E55" s="42"/>
       <c r="F55" s="42"/>
-      <c r="G55" s="42"/>
+      <c r="G55" s="92"/>
       <c r="H55" s="42" t="s">
         <v>665</v>
       </c>
@@ -9910,7 +9907,7 @@
       <c r="M55" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N55" s="82"/>
+      <c r="N55" s="80"/>
     </row>
     <row r="56" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A56" s="42" t="s">
@@ -9925,7 +9922,7 @@
       </c>
       <c r="E56" s="42"/>
       <c r="F56" s="42"/>
-      <c r="G56" s="42"/>
+      <c r="G56" s="92"/>
       <c r="H56" s="42" t="s">
         <v>668</v>
       </c>
@@ -9940,25 +9937,25 @@
       <c r="M56" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N56" s="82"/>
+      <c r="N56" s="80"/>
     </row>
     <row r="57" spans="1:14" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="94" t="s">
+      <c r="A57" s="97" t="s">
         <v>670</v>
       </c>
-      <c r="B57" s="95"/>
-      <c r="C57" s="95"/>
-      <c r="D57" s="95"/>
-      <c r="E57" s="95"/>
-      <c r="F57" s="95"/>
-      <c r="G57" s="95"/>
-      <c r="H57" s="95"/>
-      <c r="I57" s="95"/>
-      <c r="J57" s="95"/>
-      <c r="K57" s="95"/>
-      <c r="L57" s="95"/>
-      <c r="M57" s="96"/>
-      <c r="N57" s="82"/>
+      <c r="B57" s="98"/>
+      <c r="C57" s="98"/>
+      <c r="D57" s="98"/>
+      <c r="E57" s="98"/>
+      <c r="F57" s="98"/>
+      <c r="G57" s="98"/>
+      <c r="H57" s="98"/>
+      <c r="I57" s="98"/>
+      <c r="J57" s="98"/>
+      <c r="K57" s="98"/>
+      <c r="L57" s="98"/>
+      <c r="M57" s="99"/>
+      <c r="N57" s="80"/>
     </row>
     <row r="58" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A58" s="42" t="s">
@@ -9971,7 +9968,7 @@
       <c r="D58" s="42"/>
       <c r="E58" s="42"/>
       <c r="F58" s="42"/>
-      <c r="G58" s="42"/>
+      <c r="G58" s="92"/>
       <c r="H58" s="42" t="s">
         <v>672</v>
       </c>
@@ -9986,7 +9983,7 @@
       <c r="M58" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="N58" s="82"/>
+      <c r="N58" s="80"/>
     </row>
     <row r="59" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A59" s="42" t="s">
@@ -10001,7 +9998,7 @@
         <v>675</v>
       </c>
       <c r="F59" s="42"/>
-      <c r="G59" s="42"/>
+      <c r="G59" s="92"/>
       <c r="H59" s="42" t="s">
         <v>676</v>
       </c>
@@ -10016,7 +10013,7 @@
       <c r="M59" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="N59" s="82"/>
+      <c r="N59" s="80"/>
     </row>
     <row r="60" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A60" s="42" t="s">
@@ -10029,7 +10026,7 @@
       <c r="D60" s="42"/>
       <c r="E60" s="42"/>
       <c r="F60" s="42"/>
-      <c r="G60" s="42"/>
+      <c r="G60" s="92"/>
       <c r="H60" s="42" t="s">
         <v>679</v>
       </c>
@@ -10042,7 +10039,7 @@
       <c r="M60" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="N60" s="82"/>
+      <c r="N60" s="80"/>
     </row>
     <row r="61" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A61" s="42" t="s">
@@ -10057,7 +10054,7 @@
         <v>681</v>
       </c>
       <c r="F61" s="42"/>
-      <c r="G61" s="44">
+      <c r="G61" s="92">
         <v>0.34722222222222227</v>
       </c>
       <c r="H61" s="42" t="s">
@@ -10072,25 +10069,25 @@
       <c r="M61" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="N61" s="82"/>
+      <c r="N61" s="80"/>
     </row>
     <row r="62" spans="1:14" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="94" t="s">
+      <c r="A62" s="97" t="s">
         <v>683</v>
       </c>
-      <c r="B62" s="95"/>
-      <c r="C62" s="95"/>
-      <c r="D62" s="95"/>
-      <c r="E62" s="95"/>
-      <c r="F62" s="95"/>
-      <c r="G62" s="95"/>
-      <c r="H62" s="95"/>
-      <c r="I62" s="95"/>
-      <c r="J62" s="95"/>
-      <c r="K62" s="95"/>
-      <c r="L62" s="95"/>
-      <c r="M62" s="96"/>
-      <c r="N62" s="82"/>
+      <c r="B62" s="98"/>
+      <c r="C62" s="98"/>
+      <c r="D62" s="98"/>
+      <c r="E62" s="98"/>
+      <c r="F62" s="98"/>
+      <c r="G62" s="98"/>
+      <c r="H62" s="98"/>
+      <c r="I62" s="98"/>
+      <c r="J62" s="98"/>
+      <c r="K62" s="98"/>
+      <c r="L62" s="98"/>
+      <c r="M62" s="99"/>
+      <c r="N62" s="80"/>
     </row>
     <row r="63" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="42" t="s">
@@ -10109,7 +10106,7 @@
         <v>686</v>
       </c>
       <c r="F63" s="42"/>
-      <c r="G63" s="42"/>
+      <c r="G63" s="92"/>
       <c r="H63" s="42" t="s">
         <v>687</v>
       </c>
@@ -10126,25 +10123,25 @@
       <c r="M63" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="N63" s="82"/>
+      <c r="N63" s="80"/>
     </row>
     <row r="64" spans="1:14" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="94" t="s">
+      <c r="A64" s="97" t="s">
         <v>690</v>
       </c>
-      <c r="B64" s="95"/>
-      <c r="C64" s="95"/>
-      <c r="D64" s="95"/>
-      <c r="E64" s="95"/>
-      <c r="F64" s="95"/>
-      <c r="G64" s="95"/>
-      <c r="H64" s="95"/>
-      <c r="I64" s="95"/>
-      <c r="J64" s="95"/>
-      <c r="K64" s="95"/>
-      <c r="L64" s="95"/>
-      <c r="M64" s="96"/>
-      <c r="N64" s="82"/>
+      <c r="B64" s="98"/>
+      <c r="C64" s="98"/>
+      <c r="D64" s="98"/>
+      <c r="E64" s="98"/>
+      <c r="F64" s="98"/>
+      <c r="G64" s="98"/>
+      <c r="H64" s="98"/>
+      <c r="I64" s="98"/>
+      <c r="J64" s="98"/>
+      <c r="K64" s="98"/>
+      <c r="L64" s="98"/>
+      <c r="M64" s="99"/>
+      <c r="N64" s="80"/>
     </row>
     <row r="65" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A65" s="42" t="s">
@@ -10159,7 +10156,7 @@
         <v>692</v>
       </c>
       <c r="F65" s="42"/>
-      <c r="G65" s="42"/>
+      <c r="G65" s="92"/>
       <c r="H65" s="42" t="s">
         <v>693</v>
       </c>
@@ -10176,7 +10173,7 @@
       <c r="M65" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="N65" s="82"/>
+      <c r="N65" s="80"/>
     </row>
     <row r="66" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A66" s="42" t="s">
@@ -10191,7 +10188,7 @@
         <v>696</v>
       </c>
       <c r="F66" s="42"/>
-      <c r="G66" s="42"/>
+      <c r="G66" s="92"/>
       <c r="H66" s="42" t="s">
         <v>697</v>
       </c>
@@ -10210,7 +10207,7 @@
       <c r="M66" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="N66" s="82"/>
+      <c r="N66" s="80"/>
     </row>
     <row r="67" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A67" s="42" t="s">
@@ -10225,7 +10222,7 @@
         <v>681</v>
       </c>
       <c r="F67" s="42"/>
-      <c r="G67" s="42"/>
+      <c r="G67" s="92"/>
       <c r="H67" s="42" t="s">
         <v>701</v>
       </c>
@@ -10244,7 +10241,7 @@
       <c r="M67" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="N67" s="82"/>
+      <c r="N67" s="80"/>
     </row>
     <row r="68" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A68" s="42" t="s">
@@ -10259,7 +10256,7 @@
         <v>704</v>
       </c>
       <c r="F68" s="42"/>
-      <c r="G68" s="42"/>
+      <c r="G68" s="92"/>
       <c r="H68" s="42" t="s">
         <v>705</v>
       </c>
@@ -10278,7 +10275,7 @@
       <c r="M68" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="N68" s="82"/>
+      <c r="N68" s="80"/>
     </row>
     <row r="69" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="42" t="s">
@@ -10291,7 +10288,7 @@
       <c r="D69" s="42"/>
       <c r="E69" s="42"/>
       <c r="F69" s="42"/>
-      <c r="G69" s="44">
+      <c r="G69" s="92">
         <v>0.44791666666666669</v>
       </c>
       <c r="H69" s="42" t="s">
@@ -10312,7 +10309,7 @@
       <c r="M69" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="N69" s="82"/>
+      <c r="N69" s="80"/>
     </row>
     <row r="70" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A70" s="42" t="s">
@@ -10331,7 +10328,7 @@
         <v>713</v>
       </c>
       <c r="F70" s="42"/>
-      <c r="G70" s="44">
+      <c r="G70" s="92">
         <v>0.4375</v>
       </c>
       <c r="H70" s="42" t="s">
@@ -10352,7 +10349,7 @@
       <c r="M70" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="N70" s="82"/>
+      <c r="N70" s="80"/>
     </row>
     <row r="71" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A71" s="42" t="s">
@@ -10371,7 +10368,7 @@
         <v>718</v>
       </c>
       <c r="F71" s="42"/>
-      <c r="G71" s="44">
+      <c r="G71" s="92">
         <v>0.4375</v>
       </c>
       <c r="H71" s="42" t="s">
@@ -10392,7 +10389,7 @@
       <c r="M71" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="N71" s="82"/>
+      <c r="N71" s="80"/>
     </row>
     <row r="72" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A72" s="42" t="s">
@@ -10411,7 +10408,7 @@
         <v>721</v>
       </c>
       <c r="F72" s="42"/>
-      <c r="G72" s="44">
+      <c r="G72" s="92">
         <v>0.83333333333333337</v>
       </c>
       <c r="H72" s="42" t="s">
@@ -10432,7 +10429,7 @@
       <c r="M72" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="N72" s="82"/>
+      <c r="N72" s="80"/>
     </row>
     <row r="73" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A73" s="42" t="s">
@@ -10451,7 +10448,7 @@
         <v>726</v>
       </c>
       <c r="F73" s="42"/>
-      <c r="G73" s="44">
+      <c r="G73" s="92">
         <v>0.83333333333333337</v>
       </c>
       <c r="H73" s="42" t="s">
@@ -10472,7 +10469,7 @@
       <c r="M73" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="N73" s="82"/>
+      <c r="N73" s="80"/>
     </row>
     <row r="74" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A74" s="42" t="s">
@@ -10491,7 +10488,7 @@
         <v>730</v>
       </c>
       <c r="F74" s="42"/>
-      <c r="G74" s="44">
+      <c r="G74" s="92">
         <v>0.93194444444444446</v>
       </c>
       <c r="H74" s="42" t="s">
@@ -10500,7 +10497,7 @@
       <c r="I74" s="42" t="s">
         <v>732</v>
       </c>
-      <c r="J74" s="82"/>
+      <c r="J74" s="80"/>
       <c r="K74" s="42" t="s">
         <v>476</v>
       </c>
@@ -10510,7 +10507,7 @@
       <c r="M74" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="N74" s="82"/>
+      <c r="N74" s="80"/>
     </row>
     <row r="75" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A75" s="42" t="s">
@@ -10529,7 +10526,7 @@
         <v>735</v>
       </c>
       <c r="F75" s="42"/>
-      <c r="G75" s="44">
+      <c r="G75" s="92">
         <v>0.93194444444444446</v>
       </c>
       <c r="H75" s="42" t="s">
@@ -10550,7 +10547,7 @@
       <c r="M75" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="N75" s="82"/>
+      <c r="N75" s="80"/>
     </row>
     <row r="76" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A76" s="42" t="s">
@@ -10569,7 +10566,7 @@
         <v>741</v>
       </c>
       <c r="F76" s="42"/>
-      <c r="G76" s="44">
+      <c r="G76" s="92">
         <v>0.1277777777777778</v>
       </c>
       <c r="H76" s="42" t="s">
@@ -10588,13 +10585,13 @@
       <c r="M76" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="N76" s="82"/>
+      <c r="N76" s="80"/>
     </row>
     <row r="77" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A77" s="42" t="s">
         <v>744</v>
       </c>
-      <c r="B77" s="45" t="s">
+      <c r="B77" s="44" t="s">
         <v>745</v>
       </c>
       <c r="C77" s="14" t="s">
@@ -10607,7 +10604,7 @@
         <v>681</v>
       </c>
       <c r="F77" s="42"/>
-      <c r="G77" s="42"/>
+      <c r="G77" s="92"/>
       <c r="H77" s="42" t="s">
         <v>746</v>
       </c>
@@ -10626,13 +10623,13 @@
       <c r="M77" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="N77" s="82"/>
+      <c r="N77" s="80"/>
     </row>
     <row r="78" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A78" s="42" t="s">
         <v>749</v>
       </c>
-      <c r="B78" s="45" t="s">
+      <c r="B78" s="44" t="s">
         <v>750</v>
       </c>
       <c r="C78" s="14" t="s">
@@ -10645,7 +10642,7 @@
         <v>751</v>
       </c>
       <c r="F78" s="42"/>
-      <c r="G78" s="44">
+      <c r="G78" s="92">
         <v>0.93194444444444446</v>
       </c>
       <c r="H78" s="42" t="s">
@@ -10666,7 +10663,7 @@
       <c r="M78" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="N78" s="82"/>
+      <c r="N78" s="80"/>
     </row>
     <row r="79" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A79" s="42" t="s">
@@ -10685,7 +10682,7 @@
         <v>757</v>
       </c>
       <c r="F79" s="42"/>
-      <c r="G79" s="44">
+      <c r="G79" s="92">
         <v>0.93263888888888891</v>
       </c>
       <c r="H79" s="42" t="s">
@@ -10721,7 +10718,7 @@
         <v>681</v>
       </c>
       <c r="F80" s="42"/>
-      <c r="G80" s="42"/>
+      <c r="G80" s="92"/>
       <c r="H80" s="42" t="s">
         <v>763</v>
       </c>
@@ -10759,7 +10756,7 @@
         <v>681</v>
       </c>
       <c r="F81" s="42"/>
-      <c r="G81" s="44">
+      <c r="G81" s="92">
         <v>0.4381944444444445</v>
       </c>
       <c r="H81" s="42" t="s">
@@ -10768,7 +10765,7 @@
       <c r="I81" s="42" t="s">
         <v>769</v>
       </c>
-      <c r="J81" s="83"/>
+      <c r="J81" s="81"/>
       <c r="K81" s="42" t="s">
         <v>476</v>
       </c>
@@ -10778,7 +10775,7 @@
       <c r="M81" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="N81" s="82"/>
+      <c r="N81" s="80"/>
     </row>
     <row r="82" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A82" s="42" t="s">
@@ -10797,7 +10794,7 @@
         <v>681</v>
       </c>
       <c r="F82" s="42"/>
-      <c r="G82" s="42"/>
+      <c r="G82" s="92"/>
       <c r="H82" s="42" t="s">
         <v>772</v>
       </c>
@@ -10814,7 +10811,7 @@
       <c r="M82" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="N82" s="82"/>
+      <c r="N82" s="80"/>
     </row>
     <row r="83" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A83" s="42" t="s">
@@ -10832,8 +10829,8 @@
       <c r="E83" s="42" t="s">
         <v>775</v>
       </c>
-      <c r="F83" s="42"/>
-      <c r="G83" s="44">
+      <c r="F83" s="92"/>
+      <c r="G83" s="107">
         <v>0.125</v>
       </c>
       <c r="H83" s="42" t="s">
@@ -10874,8 +10871,8 @@
       <c r="E84" s="42" t="s">
         <v>780</v>
       </c>
-      <c r="F84" s="42"/>
-      <c r="G84" s="44">
+      <c r="F84" s="92"/>
+      <c r="G84" s="107">
         <v>0.1277777777777778</v>
       </c>
       <c r="H84" s="42" t="s">
@@ -10892,137 +10889,137 @@
       <c r="M84" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="N84" s="82"/>
+      <c r="N84" s="80"/>
     </row>
     <row r="85" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A85" s="45" t="s">
+      <c r="A85" s="44" t="s">
         <v>783</v>
       </c>
-      <c r="B85" s="45" t="s">
+      <c r="B85" s="44" t="s">
         <v>784</v>
       </c>
-      <c r="C85" s="45" t="s">
+      <c r="C85" s="44" t="s">
         <v>785</v>
       </c>
-      <c r="D85" s="45" t="s">
+      <c r="D85" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="E85" s="45" t="s">
+      <c r="E85" s="44" t="s">
         <v>786</v>
       </c>
-      <c r="F85" s="45"/>
-      <c r="G85" s="46">
+      <c r="F85" s="95"/>
+      <c r="G85" s="106">
         <v>0.44444444444444442</v>
       </c>
-      <c r="H85" s="45" t="s">
+      <c r="H85" s="44" t="s">
         <v>787</v>
       </c>
-      <c r="I85" s="45" t="s">
+      <c r="I85" s="44" t="s">
         <v>788</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="K85" s="45" t="s">
+      <c r="K85" s="44" t="s">
         <v>476</v>
       </c>
-      <c r="L85" s="45"/>
-      <c r="M85" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="N85" s="79"/>
+      <c r="L85" s="44"/>
+      <c r="M85" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="N85" s="77"/>
     </row>
     <row r="86" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A86" s="45" t="s">
+      <c r="A86" s="44" t="s">
         <v>790</v>
       </c>
-      <c r="B86" s="45" t="s">
+      <c r="B86" s="44" t="s">
         <v>784</v>
       </c>
-      <c r="C86" s="45" t="s">
+      <c r="C86" s="44" t="s">
         <v>785</v>
       </c>
-      <c r="D86" s="45" t="s">
+      <c r="D86" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="E86" s="45" t="s">
+      <c r="E86" s="44" t="s">
         <v>791</v>
       </c>
-      <c r="F86" s="45"/>
-      <c r="G86" s="46">
+      <c r="F86" s="95"/>
+      <c r="G86" s="106">
         <v>0.4465277777777778</v>
       </c>
-      <c r="H86" s="45" t="s">
+      <c r="H86" s="44" t="s">
         <v>792</v>
       </c>
-      <c r="I86" s="45" t="s">
+      <c r="I86" s="44" t="s">
         <v>788</v>
       </c>
       <c r="J86" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="K86" s="45" t="s">
+      <c r="K86" s="44" t="s">
         <v>476</v>
       </c>
-      <c r="L86" s="45"/>
-      <c r="M86" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="N86" s="79"/>
+      <c r="L86" s="44"/>
+      <c r="M86" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="N86" s="77"/>
     </row>
     <row r="87" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A87" s="45" t="s">
+      <c r="A87" s="44" t="s">
         <v>793</v>
       </c>
-      <c r="B87" s="45" t="s">
+      <c r="B87" s="44" t="s">
         <v>794</v>
       </c>
-      <c r="C87" s="45" t="s">
+      <c r="C87" s="44" t="s">
         <v>785</v>
       </c>
-      <c r="D87" s="45" t="s">
+      <c r="D87" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="E87" s="45" t="s">
+      <c r="E87" s="44" t="s">
         <v>795</v>
       </c>
-      <c r="F87" s="45"/>
-      <c r="G87" s="46">
+      <c r="F87" s="95"/>
+      <c r="G87" s="106">
         <v>0.1277777777777778</v>
       </c>
-      <c r="H87" s="45" t="s">
+      <c r="H87" s="44" t="s">
         <v>796</v>
       </c>
-      <c r="I87" s="45" t="s">
+      <c r="I87" s="44" t="s">
         <v>797</v>
       </c>
       <c r="J87" s="1"/>
-      <c r="K87" s="45" t="s">
+      <c r="K87" s="44" t="s">
         <v>476</v>
       </c>
-      <c r="L87" s="45"/>
-      <c r="M87" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="N87" s="79"/>
+      <c r="L87" s="44"/>
+      <c r="M87" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="N87" s="77"/>
     </row>
     <row r="88" spans="1:14" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="94" t="s">
+      <c r="A88" s="97" t="s">
         <v>798</v>
       </c>
-      <c r="B88" s="95"/>
-      <c r="C88" s="95"/>
-      <c r="D88" s="95"/>
-      <c r="E88" s="95"/>
-      <c r="F88" s="95"/>
-      <c r="G88" s="95"/>
-      <c r="H88" s="95"/>
-      <c r="I88" s="95"/>
-      <c r="J88" s="95"/>
-      <c r="K88" s="95"/>
-      <c r="L88" s="95"/>
-      <c r="M88" s="96"/>
-      <c r="N88" s="82"/>
+      <c r="B88" s="98"/>
+      <c r="C88" s="98"/>
+      <c r="D88" s="98"/>
+      <c r="E88" s="98"/>
+      <c r="F88" s="98"/>
+      <c r="G88" s="98"/>
+      <c r="H88" s="98"/>
+      <c r="I88" s="98"/>
+      <c r="J88" s="98"/>
+      <c r="K88" s="98"/>
+      <c r="L88" s="98"/>
+      <c r="M88" s="99"/>
+      <c r="N88" s="80"/>
     </row>
     <row r="89" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A89" s="42" t="s">
@@ -11041,7 +11038,7 @@
         <v>801</v>
       </c>
       <c r="F89" s="42"/>
-      <c r="G89" s="44">
+      <c r="G89" s="92">
         <v>0.1277777777777778</v>
       </c>
       <c r="H89" s="42" t="s">
@@ -11081,7 +11078,7 @@
         <v>807</v>
       </c>
       <c r="F90" s="42"/>
-      <c r="G90" s="44">
+      <c r="G90" s="92">
         <v>0.93263888888888891</v>
       </c>
       <c r="H90" s="42" t="s">
@@ -11100,25 +11097,25 @@
       <c r="M90" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="N90" s="82"/>
+      <c r="N90" s="80"/>
     </row>
     <row r="91" spans="1:14" ht="24.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="100" t="s">
+      <c r="A91" s="103" t="s">
         <v>225</v>
       </c>
-      <c r="B91" s="101"/>
-      <c r="C91" s="101"/>
-      <c r="D91" s="101"/>
-      <c r="E91" s="101"/>
-      <c r="F91" s="101"/>
-      <c r="G91" s="101"/>
-      <c r="H91" s="101"/>
-      <c r="I91" s="101"/>
-      <c r="J91" s="101"/>
-      <c r="K91" s="101"/>
-      <c r="L91" s="101"/>
-      <c r="M91" s="102"/>
-      <c r="N91" s="82"/>
+      <c r="B91" s="104"/>
+      <c r="C91" s="104"/>
+      <c r="D91" s="104"/>
+      <c r="E91" s="104"/>
+      <c r="F91" s="104"/>
+      <c r="G91" s="104"/>
+      <c r="H91" s="104"/>
+      <c r="I91" s="104"/>
+      <c r="J91" s="104"/>
+      <c r="K91" s="104"/>
+      <c r="L91" s="104"/>
+      <c r="M91" s="105"/>
+      <c r="N91" s="80"/>
     </row>
     <row r="92" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A92" s="42" t="s">
@@ -11131,17 +11128,17 @@
       <c r="D92" s="42" t="s">
         <v>216</v>
       </c>
-      <c r="E92" s="45" t="s">
+      <c r="E92" s="44" t="s">
         <v>812</v>
       </c>
-      <c r="F92" s="45" t="s">
+      <c r="F92" s="44" t="s">
         <v>813</v>
       </c>
-      <c r="G92" s="42"/>
+      <c r="G92" s="92"/>
       <c r="H92" s="42" t="s">
         <v>814</v>
       </c>
-      <c r="I92" s="45" t="s">
+      <c r="I92" s="44" t="s">
         <v>815</v>
       </c>
       <c r="J92" s="13" t="s">
@@ -11154,7 +11151,7 @@
       <c r="M92" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="N92" s="82"/>
+      <c r="N92" s="80"/>
     </row>
     <row r="93" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A93" s="42" t="s">
@@ -11167,7 +11164,7 @@
       <c r="D93" s="42"/>
       <c r="E93" s="42"/>
       <c r="F93" s="42"/>
-      <c r="G93" s="42"/>
+      <c r="G93" s="92"/>
       <c r="H93" s="42" t="s">
         <v>818</v>
       </c>
@@ -11197,7 +11194,7 @@
       <c r="D94" s="42"/>
       <c r="E94" s="42"/>
       <c r="F94" s="42"/>
-      <c r="G94" s="42"/>
+      <c r="G94" s="92"/>
       <c r="H94" s="42" t="s">
         <v>821</v>
       </c>
@@ -11231,14 +11228,14 @@
         <v>824</v>
       </c>
       <c r="F95" s="42"/>
-      <c r="G95" s="42"/>
+      <c r="G95" s="92"/>
       <c r="H95" s="42" t="s">
         <v>825</v>
       </c>
       <c r="I95" s="42" t="s">
         <v>826</v>
       </c>
-      <c r="J95" s="47" t="s">
+      <c r="J95" s="45" t="s">
         <v>225</v>
       </c>
       <c r="K95" s="42" t="s">
@@ -11265,7 +11262,7 @@
         <v>829</v>
       </c>
       <c r="F96" s="42"/>
-      <c r="G96" s="42"/>
+      <c r="G96" s="92"/>
       <c r="H96" s="42" t="s">
         <v>830</v>
       </c>
@@ -11297,7 +11294,7 @@
         <v>833</v>
       </c>
       <c r="F97" s="42"/>
-      <c r="G97" s="42"/>
+      <c r="G97" s="92"/>
       <c r="H97" s="42" t="s">
         <v>834</v>
       </c>
@@ -11331,7 +11328,7 @@
         <v>838</v>
       </c>
       <c r="F98" s="42"/>
-      <c r="G98" s="42" t="s">
+      <c r="G98" s="92" t="s">
         <v>839</v>
       </c>
       <c r="H98" s="42" t="s">
@@ -11340,7 +11337,7 @@
       <c r="I98" s="42" t="s">
         <v>841</v>
       </c>
-      <c r="J98" s="47" t="s">
+      <c r="J98" s="45" t="s">
         <v>225</v>
       </c>
       <c r="K98" s="42" t="s">
@@ -11350,7 +11347,7 @@
       <c r="M98" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="N98" s="84"/>
+      <c r="N98" s="82"/>
     </row>
     <row r="99" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A99" s="42" t="s">
@@ -11367,7 +11364,7 @@
         <v>838</v>
       </c>
       <c r="F99" s="42"/>
-      <c r="G99" s="42" t="s">
+      <c r="G99" s="92" t="s">
         <v>843</v>
       </c>
       <c r="H99" s="42" t="s">
@@ -11376,7 +11373,7 @@
       <c r="I99" s="42" t="s">
         <v>841</v>
       </c>
-      <c r="J99" s="47" t="s">
+      <c r="J99" s="45" t="s">
         <v>225</v>
       </c>
       <c r="K99" s="42" t="s">
@@ -11386,7 +11383,7 @@
       <c r="M99" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="N99" s="84"/>
+      <c r="N99" s="82"/>
     </row>
     <row r="100" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A100" s="42" t="s">
@@ -11403,7 +11400,7 @@
         <v>846</v>
       </c>
       <c r="F100" s="42"/>
-      <c r="G100" s="44">
+      <c r="G100" s="92">
         <v>0.3888888888888889</v>
       </c>
       <c r="H100" s="42" t="s">
@@ -11412,7 +11409,7 @@
       <c r="I100" s="42" t="s">
         <v>848</v>
       </c>
-      <c r="J100" s="47" t="s">
+      <c r="J100" s="45" t="s">
         <v>225</v>
       </c>
       <c r="K100" s="42" t="s">
@@ -11439,7 +11436,7 @@
         <v>851</v>
       </c>
       <c r="F101" s="42"/>
-      <c r="G101" s="42"/>
+      <c r="G101" s="92"/>
       <c r="H101" s="42" t="s">
         <v>852</v>
       </c>
@@ -11459,70 +11456,70 @@
       </c>
     </row>
     <row r="102" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A102" s="45" t="s">
+      <c r="A102" s="44" t="s">
         <v>854</v>
       </c>
-      <c r="B102" s="45"/>
-      <c r="C102" s="45" t="s">
+      <c r="B102" s="44"/>
+      <c r="C102" s="44" t="s">
         <v>785</v>
       </c>
-      <c r="D102" s="45" t="s">
+      <c r="D102" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="E102" s="45" t="s">
+      <c r="E102" s="44" t="s">
         <v>855</v>
       </c>
-      <c r="F102" s="45"/>
-      <c r="G102" s="45"/>
-      <c r="H102" s="45" t="s">
+      <c r="F102" s="44"/>
+      <c r="G102" s="95"/>
+      <c r="H102" s="44" t="s">
         <v>856</v>
       </c>
-      <c r="I102" s="45" t="s">
+      <c r="I102" s="44" t="s">
         <v>857</v>
       </c>
-      <c r="J102" s="48" t="s">
+      <c r="J102" s="46" t="s">
         <v>289</v>
       </c>
-      <c r="K102" s="45" t="s">
+      <c r="K102" s="44" t="s">
         <v>476</v>
       </c>
-      <c r="L102" s="45"/>
-      <c r="M102" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="N102" s="85"/>
+      <c r="L102" s="44"/>
+      <c r="M102" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="N102" s="83"/>
     </row>
     <row r="103" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A103" s="45" t="s">
+      <c r="A103" s="44" t="s">
         <v>858</v>
       </c>
-      <c r="B103" s="45"/>
-      <c r="C103" s="45" t="s">
+      <c r="B103" s="44"/>
+      <c r="C103" s="44" t="s">
         <v>785</v>
       </c>
-      <c r="D103" s="45" t="s">
+      <c r="D103" s="44" t="s">
         <v>859</v>
       </c>
-      <c r="E103" s="45" t="s">
+      <c r="E103" s="44" t="s">
         <v>860</v>
       </c>
-      <c r="F103" s="45"/>
-      <c r="G103" s="45"/>
-      <c r="H103" s="45" t="s">
+      <c r="F103" s="44"/>
+      <c r="G103" s="95"/>
+      <c r="H103" s="44" t="s">
         <v>861</v>
       </c>
-      <c r="I103" s="45" t="s">
+      <c r="I103" s="44" t="s">
         <v>862</v>
       </c>
-      <c r="J103" s="45" t="s">
+      <c r="J103" s="44" t="s">
         <v>244</v>
       </c>
-      <c r="K103" s="45" t="s">
+      <c r="K103" s="44" t="s">
         <v>476</v>
       </c>
-      <c r="L103" s="45"/>
-      <c r="M103" s="45"/>
-      <c r="N103" s="85"/>
+      <c r="L103" s="44"/>
+      <c r="M103" s="44"/>
+      <c r="N103" s="83"/>
     </row>
     <row r="104" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A104" s="42" t="s">
@@ -11535,7 +11532,7 @@
       <c r="D104" s="42"/>
       <c r="E104" s="42"/>
       <c r="F104" s="42"/>
-      <c r="G104" s="42"/>
+      <c r="G104" s="92"/>
       <c r="H104" s="42" t="s">
         <v>864</v>
       </c>
@@ -11564,6 +11561,7 @@
     <mergeCell ref="A88:M88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11577,70 +11575,70 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="38.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="38.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="43.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="42.44140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="39.109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="45.109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="49.109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="31.44140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="24.33203125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="28.44140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="25.88671875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="33.33203125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="2" max="2" width="38" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="38.44140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="43" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="42.44140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="39.109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="45.109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="49.109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="31.44140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="28.44140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="25.88671875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="33.33203125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="31" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="28.33203125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="84" t="s">
         <v>866</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="84" t="s">
         <v>867</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="86" t="s">
+      <c r="E1" s="84" t="s">
         <v>465</v>
       </c>
-      <c r="F1" s="86" t="s">
+      <c r="F1" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="86" t="s">
+      <c r="G1" s="84" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="86" t="s">
+      <c r="I1" s="84" t="s">
         <v>466</v>
       </c>
-      <c r="J1" s="86" t="s">
+      <c r="J1" s="84" t="s">
         <v>467</v>
       </c>
-      <c r="K1" s="87" t="s">
+      <c r="K1" s="85" t="s">
         <v>468</v>
       </c>
-      <c r="L1" s="86" t="s">
+      <c r="L1" s="84" t="s">
         <v>470</v>
       </c>
-      <c r="M1" s="87" t="s">
+      <c r="M1" s="85" t="s">
         <v>868</v>
       </c>
-      <c r="N1" s="87" t="s">
+      <c r="N1" s="85" t="s">
         <v>869</v>
       </c>
-      <c r="O1" s="86" t="s">
+      <c r="O1" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="87" t="s">
+      <c r="P1" s="85" t="s">
         <v>471</v>
       </c>
     </row>
@@ -11660,15 +11658,15 @@
       <c r="E2" s="23" t="s">
         <v>872</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="89"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="87"/>
       <c r="H2" s="20" t="s">
         <v>873</v>
       </c>
-      <c r="I2" s="88" t="s">
+      <c r="I2" s="86" t="s">
         <v>874</v>
       </c>
-      <c r="J2" s="88" t="s">
+      <c r="J2" s="86" t="s">
         <v>875</v>
       </c>
       <c r="K2" s="38" t="s">
@@ -11684,7 +11682,7 @@
       <c r="O2" s="38">
         <v>2020</v>
       </c>
-      <c r="P2" s="88" t="s">
+      <c r="P2" s="86" t="s">
         <v>878</v>
       </c>
     </row>
@@ -11709,7 +11707,7 @@
       <c r="H3" s="20" t="s">
         <v>935</v>
       </c>
-      <c r="I3" s="90" t="s">
+      <c r="I3" s="88" t="s">
         <v>883</v>
       </c>
       <c r="J3" s="23"/>
@@ -11747,7 +11745,7 @@
         <v>886</v>
       </c>
       <c r="F4" s="23"/>
-      <c r="G4" s="88"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="20" t="s">
         <v>936</v>
       </c>
@@ -11791,7 +11789,7 @@
       <c r="F5" s="40" t="s">
         <v>891</v>
       </c>
-      <c r="G5" s="91"/>
+      <c r="G5" s="89"/>
       <c r="H5" s="19" t="s">
         <v>892</v>
       </c>
@@ -11831,22 +11829,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="28.6640625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.5546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="46.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="36.44140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="30.5546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="32.5546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="32.33203125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="47.109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="36.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="45.109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="42.44140625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="32.5546875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="33.109375" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="57.0" collapsed="true"/>
+    <col min="1" max="1" width="28.6640625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.5546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.88671875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="39" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="46.88671875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="36.44140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.5546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="32.5546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="32.33203125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="47.109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="36" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="45.109375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="42.44140625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="32.5546875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="33.109375" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="57" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -11941,7 +11939,7 @@
       <c r="O2" s="20">
         <v>2018</v>
       </c>
-      <c r="P2" s="92"/>
+      <c r="P2" s="90"/>
     </row>
     <row r="3" spans="1:16" ht="179.4" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
@@ -11985,7 +11983,7 @@
       <c r="O3" s="20">
         <v>2019</v>
       </c>
-      <c r="P3" s="92"/>
+      <c r="P3" s="90"/>
     </row>
     <row r="4" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
@@ -11997,7 +11995,7 @@
       <c r="C4" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="93"/>
+      <c r="D4" s="91"/>
       <c r="E4" s="22" t="s">
         <v>917</v>
       </c>
@@ -12007,7 +12005,7 @@
       <c r="G4" s="22" t="s">
         <v>919</v>
       </c>
-      <c r="H4" s="93"/>
+      <c r="H4" s="91"/>
       <c r="I4" s="23" t="s">
         <v>920</v>
       </c>
